--- a/設計/【千年カルテ】メッセージ設計書 .xlsx
+++ b/設計/【千年カルテ】メッセージ設計書 .xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="516">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -4685,25 +4685,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>%%(filename)sに設定されている日付がシステム日付と異なるため、%%(currentProcess)sは実行不可です。</t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>ジッコウフカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取込前確認_承認済みファイルに設定されている日付がシステム日付と異なるとき</t>
     <rPh sb="0" eb="2">
       <t>トリコミ</t>
@@ -4724,6 +4705,72 @@
   </si>
   <si>
     <t>E000106</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上書き取込済みで上書き取込オプションありで実行した時</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%%(filename)sに設定されている日付がシステム日付と異なるため、%%(jobName)sは実行不可です。</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ジッコウフカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上書き取込が実施済みのため、%%(jobName)sは上書き取込オプションありでは実行不可です。</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジッシズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ジッコウフカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5699,41 +5746,26 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5741,77 +5773,83 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5873,9 +5911,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5897,95 +5932,122 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6026,20 +6088,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="56" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6073,15 +6129,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="56" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6665,144 +6712,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="66" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="67" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="66" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
     </row>
     <row r="2" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="64" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="116"/>
     </row>
     <row r="3" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="74"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="119"/>
     </row>
     <row r="4" spans="2:59" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
@@ -6865,19 +6912,19 @@
       <c r="BG4" s="2"/>
     </row>
     <row r="5" spans="2:59" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="122"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -7728,63 +7775,63 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44" t="s">
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="44" t="s">
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="44" t="s">
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AN19" s="124"/>
+      <c r="AO19" s="124"/>
+      <c r="AP19" s="124"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="124"/>
+      <c r="AS19" s="124"/>
+      <c r="AT19" s="124"/>
+      <c r="AU19" s="125"/>
+      <c r="AV19" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="46"/>
+      <c r="AW19" s="124"/>
+      <c r="AX19" s="124"/>
+      <c r="AY19" s="124"/>
+      <c r="AZ19" s="124"/>
+      <c r="BA19" s="124"/>
+      <c r="BB19" s="124"/>
+      <c r="BC19" s="125"/>
       <c r="BD19" s="7"/>
       <c r="BE19" s="7"/>
       <c r="BF19" s="7"/>
@@ -7796,61 +7843,61 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="42">
+      <c r="G20" s="100">
         <v>1</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="47" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="47" t="s">
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="49"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="127"/>
+      <c r="AM20" s="127"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="127"/>
+      <c r="AR20" s="127"/>
+      <c r="AS20" s="127"/>
+      <c r="AT20" s="127"/>
+      <c r="AU20" s="128"/>
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="127"/>
+      <c r="AX20" s="127"/>
+      <c r="AY20" s="127"/>
+      <c r="AZ20" s="127"/>
+      <c r="BA20" s="127"/>
+      <c r="BB20" s="127"/>
+      <c r="BC20" s="128"/>
       <c r="BD20" s="7"/>
       <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
@@ -7862,61 +7909,61 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="57">
+      <c r="G21" s="38">
         <v>2</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="54" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="54" t="s">
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
-      <c r="BC21" s="56"/>
+      <c r="AD21" s="132"/>
+      <c r="AE21" s="132"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="132"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="132"/>
+      <c r="AL21" s="132"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="132"/>
+      <c r="AO21" s="132"/>
+      <c r="AP21" s="132"/>
+      <c r="AQ21" s="132"/>
+      <c r="AR21" s="132"/>
+      <c r="AS21" s="132"/>
+      <c r="AT21" s="132"/>
+      <c r="AU21" s="133"/>
+      <c r="AV21" s="131"/>
+      <c r="AW21" s="132"/>
+      <c r="AX21" s="132"/>
+      <c r="AY21" s="132"/>
+      <c r="AZ21" s="132"/>
+      <c r="BA21" s="132"/>
+      <c r="BB21" s="132"/>
+      <c r="BC21" s="133"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
@@ -8294,65 +8341,65 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43" t="s">
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43" t="s">
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="43" t="s">
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101"/>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="43" t="s">
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="101"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="43"/>
-      <c r="BB28" s="43"/>
-      <c r="BC28" s="43"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
+      <c r="BA28" s="101"/>
+      <c r="BB28" s="101"/>
+      <c r="BC28" s="101"/>
       <c r="BG28" s="11"/>
     </row>
     <row r="29" spans="2:59" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -8361,63 +8408,63 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="52">
+      <c r="G29" s="129">
         <v>1</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="38" t="s">
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38" t="s">
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38" t="s">
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="102"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="102"/>
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="102"/>
+      <c r="AS29" s="102"/>
+      <c r="AT29" s="130"/>
+      <c r="AU29" s="130"/>
+      <c r="AV29" s="130"/>
+      <c r="AW29" s="130"/>
+      <c r="AX29" s="130"/>
+      <c r="AY29" s="130"/>
+      <c r="AZ29" s="130"/>
+      <c r="BA29" s="130"/>
+      <c r="BB29" s="130"/>
+      <c r="BC29" s="130"/>
       <c r="BG29" s="11"/>
     </row>
     <row r="30" spans="2:59" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8426,65 +8473,65 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="42">
+      <c r="G30" s="100">
         <v>2</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="50" t="s">
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50" t="s">
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="50" t="s">
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AJ30" s="50"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="50"/>
-      <c r="AM30" s="50"/>
-      <c r="AN30" s="50"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="51" t="s">
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="45"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AU30" s="51"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
+      <c r="AU30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
       <c r="BG30" s="11"/>
     </row>
     <row r="31" spans="2:59" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8493,65 +8540,65 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="42">
+      <c r="G31" s="100">
         <v>3</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="50" t="s">
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50" t="s">
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50"/>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="AJ31" s="50"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="51" t="s">
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
+      <c r="AU31" s="46"/>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="46"/>
+      <c r="AY31" s="46"/>
+      <c r="AZ31" s="46"/>
+      <c r="BA31" s="46"/>
+      <c r="BB31" s="46"/>
+      <c r="BC31" s="46"/>
       <c r="BG31" s="11"/>
     </row>
     <row r="32" spans="2:59" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8560,65 +8607,65 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="42">
+      <c r="G32" s="100">
         <v>4</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="50" t="s">
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="50" t="s">
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="AJ32" s="50"/>
-      <c r="AK32" s="50"/>
-      <c r="AL32" s="50"/>
-      <c r="AM32" s="50"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50"/>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
-      <c r="AS32" s="50"/>
-      <c r="AT32" s="51" t="s">
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="AU32" s="51"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
       <c r="BG32" s="11"/>
     </row>
     <row r="33" spans="2:59" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8627,65 +8674,65 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="42">
+      <c r="G33" s="100">
         <v>5</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="50" t="s">
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50" t="s">
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50" t="s">
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
-      <c r="AR33" s="50"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="51" t="s">
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="AU33" s="51"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="51"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
       <c r="BG33" s="11"/>
     </row>
     <row r="34" spans="2:59" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8694,63 +8741,63 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="42">
+      <c r="G34" s="100">
         <v>6</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="50" t="s">
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50"/>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="50"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="46"/>
+      <c r="AU34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+      <c r="BB34" s="46"/>
+      <c r="BC34" s="46"/>
       <c r="BG34" s="11"/>
     </row>
     <row r="35" spans="2:59" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8759,65 +8806,65 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="57">
+      <c r="G35" s="38">
         <v>7</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="75" t="s">
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75" t="s">
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="75"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="75"/>
-      <c r="AP35" s="75"/>
-      <c r="AQ35" s="75"/>
-      <c r="AR35" s="75"/>
-      <c r="AS35" s="75"/>
-      <c r="AT35" s="85" t="s">
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="AU35" s="85"/>
-      <c r="AV35" s="85"/>
-      <c r="AW35" s="85"/>
-      <c r="AX35" s="85"/>
-      <c r="AY35" s="85"/>
-      <c r="AZ35" s="85"/>
-      <c r="BA35" s="85"/>
-      <c r="BB35" s="85"/>
-      <c r="BC35" s="85"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="82"/>
+      <c r="BA35" s="82"/>
+      <c r="BB35" s="82"/>
+      <c r="BC35" s="82"/>
       <c r="BG35" s="11"/>
     </row>
     <row r="36" spans="2:59" ht="20.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -8948,64 +8995,64 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="124" t="s">
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="126" t="s">
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="V38" s="127"/>
-      <c r="W38" s="128"/>
-      <c r="X38" s="125" t="s">
+      <c r="V38" s="48"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="125"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="126" t="s">
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AG38" s="127"/>
-      <c r="AH38" s="127"/>
-      <c r="AI38" s="127"/>
-      <c r="AJ38" s="128"/>
-      <c r="AK38" s="126" t="s">
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="49"/>
+      <c r="AK38" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AL38" s="127"/>
-      <c r="AM38" s="127"/>
-      <c r="AN38" s="127"/>
-      <c r="AO38" s="128"/>
-      <c r="AP38" s="126" t="s">
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="AQ38" s="127"/>
-      <c r="AR38" s="127"/>
-      <c r="AS38" s="127"/>
-      <c r="AT38" s="127"/>
-      <c r="AU38" s="127"/>
-      <c r="AV38" s="127"/>
-      <c r="AW38" s="127"/>
-      <c r="AX38" s="127"/>
-      <c r="AY38" s="127"/>
-      <c r="AZ38" s="132"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+      <c r="AS38" s="48"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="48"/>
+      <c r="AZ38" s="53"/>
       <c r="BD38" s="7"/>
       <c r="BE38" s="7"/>
       <c r="BF38" s="7"/>
@@ -9017,66 +9064,66 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="90" t="s">
+      <c r="H39" s="85"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="129" t="s">
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="V39" s="130"/>
-      <c r="W39" s="130"/>
-      <c r="X39" s="129" t="s">
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="Y39" s="130"/>
-      <c r="Z39" s="130"/>
-      <c r="AA39" s="130"/>
-      <c r="AB39" s="130"/>
-      <c r="AC39" s="130"/>
-      <c r="AD39" s="130"/>
-      <c r="AE39" s="131"/>
-      <c r="AF39" s="129" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="AG39" s="130"/>
-      <c r="AH39" s="130"/>
-      <c r="AI39" s="130"/>
-      <c r="AJ39" s="131"/>
-      <c r="AK39" s="129" t="s">
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AL39" s="130"/>
-      <c r="AM39" s="130"/>
-      <c r="AN39" s="130"/>
-      <c r="AO39" s="131"/>
-      <c r="AP39" s="129" t="s">
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AQ39" s="130"/>
-      <c r="AR39" s="130"/>
-      <c r="AS39" s="130"/>
-      <c r="AT39" s="130"/>
-      <c r="AU39" s="130"/>
-      <c r="AV39" s="130"/>
-      <c r="AW39" s="130"/>
-      <c r="AX39" s="130"/>
-      <c r="AY39" s="130"/>
-      <c r="AZ39" s="133"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="54"/>
       <c r="BD39" s="7"/>
       <c r="BE39" s="7"/>
       <c r="BF39" s="7"/>
@@ -9901,58 +9948,58 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="86" t="s">
+      <c r="G54" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="92" t="s">
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="93"/>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="93"/>
-      <c r="AA54" s="93"/>
-      <c r="AB54" s="93"/>
-      <c r="AC54" s="93"/>
-      <c r="AD54" s="93"/>
-      <c r="AE54" s="93"/>
-      <c r="AF54" s="93"/>
-      <c r="AG54" s="93"/>
-      <c r="AH54" s="93"/>
-      <c r="AI54" s="93"/>
-      <c r="AJ54" s="93"/>
-      <c r="AK54" s="93"/>
-      <c r="AL54" s="93"/>
-      <c r="AM54" s="93"/>
-      <c r="AN54" s="93"/>
-      <c r="AO54" s="93"/>
-      <c r="AP54" s="93"/>
-      <c r="AQ54" s="93"/>
-      <c r="AR54" s="93"/>
-      <c r="AS54" s="93"/>
-      <c r="AT54" s="93"/>
-      <c r="AU54" s="93"/>
-      <c r="AV54" s="93"/>
-      <c r="AW54" s="93"/>
-      <c r="AX54" s="93"/>
-      <c r="AY54" s="93"/>
-      <c r="AZ54" s="93"/>
-      <c r="BA54" s="93"/>
-      <c r="BB54" s="94"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
+      <c r="W54" s="90"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="90"/>
+      <c r="AA54" s="90"/>
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="90"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="90"/>
+      <c r="AH54" s="90"/>
+      <c r="AI54" s="90"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
+      <c r="AO54" s="90"/>
+      <c r="AP54" s="90"/>
+      <c r="AQ54" s="90"/>
+      <c r="AR54" s="90"/>
+      <c r="AS54" s="90"/>
+      <c r="AT54" s="90"/>
+      <c r="AU54" s="90"/>
+      <c r="AV54" s="90"/>
+      <c r="AW54" s="90"/>
+      <c r="AX54" s="90"/>
+      <c r="AY54" s="90"/>
+      <c r="AZ54" s="90"/>
+      <c r="BA54" s="90"/>
+      <c r="BB54" s="91"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="7"/>
       <c r="BE54" s="7"/>
@@ -9965,58 +10012,58 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="95" t="s">
+      <c r="G55" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="82" t="s">
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="83"/>
-      <c r="W55" s="83"/>
-      <c r="X55" s="83"/>
-      <c r="Y55" s="83"/>
-      <c r="Z55" s="83"/>
-      <c r="AA55" s="83"/>
-      <c r="AB55" s="83"/>
-      <c r="AC55" s="83"/>
-      <c r="AD55" s="83"/>
-      <c r="AE55" s="83"/>
-      <c r="AF55" s="83"/>
-      <c r="AG55" s="83"/>
-      <c r="AH55" s="83"/>
-      <c r="AI55" s="83"/>
-      <c r="AJ55" s="83"/>
-      <c r="AK55" s="83"/>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
-      <c r="AN55" s="83"/>
-      <c r="AO55" s="83"/>
-      <c r="AP55" s="83"/>
-      <c r="AQ55" s="83"/>
-      <c r="AR55" s="83"/>
-      <c r="AS55" s="83"/>
-      <c r="AT55" s="83"/>
-      <c r="AU55" s="83"/>
-      <c r="AV55" s="83"/>
-      <c r="AW55" s="83"/>
-      <c r="AX55" s="83"/>
-      <c r="AY55" s="83"/>
-      <c r="AZ55" s="83"/>
-      <c r="BA55" s="83"/>
-      <c r="BB55" s="84"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="80"/>
+      <c r="AH55" s="80"/>
+      <c r="AI55" s="80"/>
+      <c r="AJ55" s="80"/>
+      <c r="AK55" s="80"/>
+      <c r="AL55" s="80"/>
+      <c r="AM55" s="80"/>
+      <c r="AN55" s="80"/>
+      <c r="AO55" s="80"/>
+      <c r="AP55" s="80"/>
+      <c r="AQ55" s="80"/>
+      <c r="AR55" s="80"/>
+      <c r="AS55" s="80"/>
+      <c r="AT55" s="80"/>
+      <c r="AU55" s="80"/>
+      <c r="AV55" s="80"/>
+      <c r="AW55" s="80"/>
+      <c r="AX55" s="80"/>
+      <c r="AY55" s="80"/>
+      <c r="AZ55" s="80"/>
+      <c r="BA55" s="80"/>
+      <c r="BB55" s="81"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
       <c r="BE55" s="7"/>
@@ -10029,58 +10076,58 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="98" t="s">
+      <c r="G56" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="99"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="100"/>
-      <c r="P56" s="79" t="s">
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="80"/>
-      <c r="S56" s="80"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="80"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="80"/>
-      <c r="AK56" s="80"/>
-      <c r="AL56" s="80"/>
-      <c r="AM56" s="80"/>
-      <c r="AN56" s="80"/>
-      <c r="AO56" s="80"/>
-      <c r="AP56" s="80"/>
-      <c r="AQ56" s="80"/>
-      <c r="AR56" s="80"/>
-      <c r="AS56" s="80"/>
-      <c r="AT56" s="80"/>
-      <c r="AU56" s="80"/>
-      <c r="AV56" s="80"/>
-      <c r="AW56" s="80"/>
-      <c r="AX56" s="80"/>
-      <c r="AY56" s="80"/>
-      <c r="AZ56" s="80"/>
-      <c r="BA56" s="80"/>
-      <c r="BB56" s="81"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
+      <c r="AB56" s="77"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="77"/>
+      <c r="AJ56" s="77"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="77"/>
+      <c r="AM56" s="77"/>
+      <c r="AN56" s="77"/>
+      <c r="AO56" s="77"/>
+      <c r="AP56" s="77"/>
+      <c r="AQ56" s="77"/>
+      <c r="AR56" s="77"/>
+      <c r="AS56" s="77"/>
+      <c r="AT56" s="77"/>
+      <c r="AU56" s="77"/>
+      <c r="AV56" s="77"/>
+      <c r="AW56" s="77"/>
+      <c r="AX56" s="77"/>
+      <c r="AY56" s="77"/>
+      <c r="AZ56" s="77"/>
+      <c r="BA56" s="77"/>
+      <c r="BB56" s="78"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
       <c r="BE56" s="7"/>
@@ -10093,58 +10140,58 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="98" t="s">
+      <c r="G57" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="99"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="79" t="s">
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="80"/>
-      <c r="AD57" s="80"/>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="80"/>
-      <c r="AL57" s="80"/>
-      <c r="AM57" s="80"/>
-      <c r="AN57" s="80"/>
-      <c r="AO57" s="80"/>
-      <c r="AP57" s="80"/>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="80"/>
-      <c r="AS57" s="80"/>
-      <c r="AT57" s="80"/>
-      <c r="AU57" s="80"/>
-      <c r="AV57" s="80"/>
-      <c r="AW57" s="80"/>
-      <c r="AX57" s="80"/>
-      <c r="AY57" s="80"/>
-      <c r="AZ57" s="80"/>
-      <c r="BA57" s="80"/>
-      <c r="BB57" s="81"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="77"/>
+      <c r="AJ57" s="77"/>
+      <c r="AK57" s="77"/>
+      <c r="AL57" s="77"/>
+      <c r="AM57" s="77"/>
+      <c r="AN57" s="77"/>
+      <c r="AO57" s="77"/>
+      <c r="AP57" s="77"/>
+      <c r="AQ57" s="77"/>
+      <c r="AR57" s="77"/>
+      <c r="AS57" s="77"/>
+      <c r="AT57" s="77"/>
+      <c r="AU57" s="77"/>
+      <c r="AV57" s="77"/>
+      <c r="AW57" s="77"/>
+      <c r="AX57" s="77"/>
+      <c r="AY57" s="77"/>
+      <c r="AZ57" s="77"/>
+      <c r="BA57" s="77"/>
+      <c r="BB57" s="78"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
       <c r="BE57" s="7"/>
@@ -10157,58 +10204,58 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="101" t="s">
+      <c r="G58" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102"/>
-      <c r="M58" s="102"/>
-      <c r="N58" s="102"/>
-      <c r="O58" s="103"/>
-      <c r="P58" s="76" t="s">
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="98"/>
+      <c r="N58" s="98"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="77"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="77"/>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
-      <c r="AC58" s="77"/>
-      <c r="AD58" s="77"/>
-      <c r="AE58" s="77"/>
-      <c r="AF58" s="77"/>
-      <c r="AG58" s="77"/>
-      <c r="AH58" s="77"/>
-      <c r="AI58" s="77"/>
-      <c r="AJ58" s="77"/>
-      <c r="AK58" s="77"/>
-      <c r="AL58" s="77"/>
-      <c r="AM58" s="77"/>
-      <c r="AN58" s="77"/>
-      <c r="AO58" s="77"/>
-      <c r="AP58" s="77"/>
-      <c r="AQ58" s="77"/>
-      <c r="AR58" s="77"/>
-      <c r="AS58" s="77"/>
-      <c r="AT58" s="77"/>
-      <c r="AU58" s="77"/>
-      <c r="AV58" s="77"/>
-      <c r="AW58" s="77"/>
-      <c r="AX58" s="77"/>
-      <c r="AY58" s="77"/>
-      <c r="AZ58" s="77"/>
-      <c r="BA58" s="77"/>
-      <c r="BB58" s="78"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="74"/>
+      <c r="AQ58" s="74"/>
+      <c r="AR58" s="74"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="74"/>
+      <c r="AU58" s="74"/>
+      <c r="AV58" s="74"/>
+      <c r="AW58" s="74"/>
+      <c r="AX58" s="74"/>
+      <c r="AY58" s="74"/>
+      <c r="AZ58" s="74"/>
+      <c r="BA58" s="74"/>
+      <c r="BB58" s="75"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
       <c r="BE58" s="7"/>
@@ -10527,70 +10574,70 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="105" t="s">
+      <c r="G64" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="118" t="s">
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="120"/>
-      <c r="Q64" s="118" t="s">
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="72"/>
+      <c r="Q64" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="R64" s="119"/>
-      <c r="S64" s="119"/>
-      <c r="T64" s="119"/>
-      <c r="U64" s="119"/>
-      <c r="V64" s="120"/>
-      <c r="W64" s="118" t="s">
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="X64" s="119"/>
-      <c r="Y64" s="119"/>
-      <c r="Z64" s="119"/>
-      <c r="AA64" s="119"/>
-      <c r="AB64" s="119"/>
-      <c r="AC64" s="119"/>
-      <c r="AD64" s="119"/>
-      <c r="AE64" s="119"/>
-      <c r="AF64" s="119"/>
-      <c r="AG64" s="119"/>
-      <c r="AH64" s="119"/>
-      <c r="AI64" s="119"/>
-      <c r="AJ64" s="119"/>
-      <c r="AK64" s="119"/>
-      <c r="AL64" s="119"/>
-      <c r="AM64" s="120"/>
-      <c r="AN64" s="104" t="s">
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="71"/>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
+      <c r="AH64" s="71"/>
+      <c r="AI64" s="71"/>
+      <c r="AJ64" s="71"/>
+      <c r="AK64" s="71"/>
+      <c r="AL64" s="71"/>
+      <c r="AM64" s="72"/>
+      <c r="AN64" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AO64" s="104"/>
-      <c r="AP64" s="104"/>
-      <c r="AQ64" s="104"/>
-      <c r="AR64" s="104" t="s">
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AS64" s="104"/>
-      <c r="AT64" s="104"/>
-      <c r="AU64" s="104" t="s">
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AV64" s="105"/>
-      <c r="AW64" s="105"/>
-      <c r="AX64" s="105" t="s">
+      <c r="AV64" s="56"/>
+      <c r="AW64" s="56"/>
+      <c r="AX64" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AY64" s="105"/>
-      <c r="AZ64" s="105"/>
-      <c r="BA64" s="105"/>
-      <c r="BB64" s="105"/>
+      <c r="AY64" s="56"/>
+      <c r="AZ64" s="56"/>
+      <c r="BA64" s="56"/>
+      <c r="BB64" s="56"/>
       <c r="BC64" s="7"/>
       <c r="BD64" s="7"/>
       <c r="BE64" s="7"/>
@@ -10603,68 +10650,68 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="114">
+      <c r="G65" s="66">
         <v>1</v>
       </c>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="106" t="s">
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="106" t="s">
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
-      <c r="U65" s="107"/>
-      <c r="V65" s="108"/>
-      <c r="W65" s="115" t="s">
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="116"/>
-      <c r="Z65" s="116"/>
-      <c r="AA65" s="116"/>
-      <c r="AB65" s="116"/>
-      <c r="AC65" s="116"/>
-      <c r="AD65" s="116"/>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="116"/>
-      <c r="AG65" s="116"/>
-      <c r="AH65" s="116"/>
-      <c r="AI65" s="116"/>
-      <c r="AJ65" s="116"/>
-      <c r="AK65" s="116"/>
-      <c r="AL65" s="116"/>
-      <c r="AM65" s="117"/>
-      <c r="AN65" s="112" t="s">
+      <c r="X65" s="68"/>
+      <c r="Y65" s="68"/>
+      <c r="Z65" s="68"/>
+      <c r="AA65" s="68"/>
+      <c r="AB65" s="68"/>
+      <c r="AC65" s="68"/>
+      <c r="AD65" s="68"/>
+      <c r="AE65" s="68"/>
+      <c r="AF65" s="68"/>
+      <c r="AG65" s="68"/>
+      <c r="AH65" s="68"/>
+      <c r="AI65" s="68"/>
+      <c r="AJ65" s="68"/>
+      <c r="AK65" s="68"/>
+      <c r="AL65" s="68"/>
+      <c r="AM65" s="69"/>
+      <c r="AN65" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AO65" s="96"/>
-      <c r="AP65" s="96"/>
-      <c r="AQ65" s="113"/>
-      <c r="AR65" s="109" t="s">
+      <c r="AO65" s="64"/>
+      <c r="AP65" s="64"/>
+      <c r="AQ65" s="65"/>
+      <c r="AR65" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AS65" s="110"/>
-      <c r="AT65" s="111"/>
-      <c r="AU65" s="112" t="s">
+      <c r="AS65" s="61"/>
+      <c r="AT65" s="62"/>
+      <c r="AU65" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="AV65" s="96"/>
-      <c r="AW65" s="113"/>
-      <c r="AX65" s="114"/>
-      <c r="AY65" s="114"/>
-      <c r="AZ65" s="114"/>
-      <c r="BA65" s="114"/>
-      <c r="BB65" s="114"/>
+      <c r="AV65" s="64"/>
+      <c r="AW65" s="65"/>
+      <c r="AX65" s="66"/>
+      <c r="AY65" s="66"/>
+      <c r="AZ65" s="66"/>
+      <c r="BA65" s="66"/>
+      <c r="BB65" s="66"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="7"/>
       <c r="BE65" s="7"/>
@@ -11534,39 +11581,53 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="104">
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:T35"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:T38"/>
-    <mergeCell ref="U33:AH33"/>
-    <mergeCell ref="AI33:AS33"/>
-    <mergeCell ref="AT33:BC33"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X38:AE38"/>
-    <mergeCell ref="X39:AE39"/>
-    <mergeCell ref="AF38:AJ38"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="AK38:AO38"/>
-    <mergeCell ref="AK39:AO39"/>
-    <mergeCell ref="AP38:AZ38"/>
-    <mergeCell ref="AP39:AZ39"/>
-    <mergeCell ref="AR64:AT64"/>
-    <mergeCell ref="AU64:AW64"/>
-    <mergeCell ref="AX64:BB64"/>
-    <mergeCell ref="AN64:AQ64"/>
-    <mergeCell ref="J65:P65"/>
-    <mergeCell ref="AR65:AT65"/>
-    <mergeCell ref="AN65:AQ65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="AX65:BB65"/>
-    <mergeCell ref="Q65:V65"/>
-    <mergeCell ref="W65:AM65"/>
-    <mergeCell ref="AU65:AW65"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="Q64:V64"/>
-    <mergeCell ref="W64:AM64"/>
+    <mergeCell ref="AI29:AS29"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:AB19"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="AC19:AU19"/>
+    <mergeCell ref="U30:AH30"/>
+    <mergeCell ref="AT34:BC34"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="AT28:BC28"/>
+    <mergeCell ref="AT29:BC29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="AV19:BC19"/>
+    <mergeCell ref="AC20:AU20"/>
+    <mergeCell ref="AV20:BC20"/>
+    <mergeCell ref="AV21:BC21"/>
+    <mergeCell ref="AC21:AU21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:T34"/>
+    <mergeCell ref="U34:AH34"/>
+    <mergeCell ref="AI34:AS34"/>
+    <mergeCell ref="AI28:AS28"/>
+    <mergeCell ref="B1:I3"/>
+    <mergeCell ref="J2:O3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="W2:AB3"/>
+    <mergeCell ref="AC2:AI3"/>
+    <mergeCell ref="AJ2:AO3"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="U28:AH28"/>
+    <mergeCell ref="U29:AH29"/>
+    <mergeCell ref="U32:AH32"/>
+    <mergeCell ref="U31:AH31"/>
+    <mergeCell ref="J29:T29"/>
+    <mergeCell ref="J28:T28"/>
+    <mergeCell ref="J31:T31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:T30"/>
     <mergeCell ref="AT32:BC32"/>
     <mergeCell ref="AT31:BC31"/>
     <mergeCell ref="AT30:BC30"/>
@@ -11591,53 +11652,39 @@
     <mergeCell ref="G58:O58"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:T33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="U28:AH28"/>
-    <mergeCell ref="U29:AH29"/>
-    <mergeCell ref="U32:AH32"/>
-    <mergeCell ref="U31:AH31"/>
-    <mergeCell ref="J29:T29"/>
-    <mergeCell ref="J28:T28"/>
-    <mergeCell ref="J31:T31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:T30"/>
-    <mergeCell ref="AI28:AS28"/>
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="J2:O3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="W2:AB3"/>
-    <mergeCell ref="AC2:AI3"/>
-    <mergeCell ref="AJ2:AO3"/>
-    <mergeCell ref="AI29:AS29"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:AB19"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="AC19:AU19"/>
-    <mergeCell ref="U30:AH30"/>
-    <mergeCell ref="AT34:BC34"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="AT28:BC28"/>
-    <mergeCell ref="AT29:BC29"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="AV19:BC19"/>
-    <mergeCell ref="AC20:AU20"/>
-    <mergeCell ref="AV20:BC20"/>
-    <mergeCell ref="AV21:BC21"/>
-    <mergeCell ref="AC21:AU21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:T34"/>
-    <mergeCell ref="U34:AH34"/>
-    <mergeCell ref="AI34:AS34"/>
+    <mergeCell ref="AR64:AT64"/>
+    <mergeCell ref="AU64:AW64"/>
+    <mergeCell ref="AX64:BB64"/>
+    <mergeCell ref="AN64:AQ64"/>
+    <mergeCell ref="J65:P65"/>
+    <mergeCell ref="AR65:AT65"/>
+    <mergeCell ref="AN65:AQ65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="AX65:BB65"/>
+    <mergeCell ref="Q65:V65"/>
+    <mergeCell ref="W65:AM65"/>
+    <mergeCell ref="AU65:AW65"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="Q64:V64"/>
+    <mergeCell ref="W64:AM64"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:T35"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:T38"/>
+    <mergeCell ref="U33:AH33"/>
+    <mergeCell ref="AI33:AS33"/>
+    <mergeCell ref="AT33:BC33"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X38:AE38"/>
+    <mergeCell ref="X39:AE39"/>
+    <mergeCell ref="AF38:AJ38"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="AK38:AO38"/>
+    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AP38:AZ38"/>
+    <mergeCell ref="AP39:AZ39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11668,144 +11715,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="66" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="67" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="66" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
     </row>
     <row r="2" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="64" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="116"/>
     </row>
     <row r="3" spans="2:59" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="74"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="119"/>
     </row>
     <row r="4" spans="2:59" s="3" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
@@ -11868,19 +11915,19 @@
       <c r="BG4" s="2"/>
     </row>
     <row r="5" spans="2:59" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="122"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -12855,63 +12902,63 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44" t="s">
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="44" t="s">
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="44" t="s">
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="124"/>
+      <c r="AU21" s="125"/>
+      <c r="AV21" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="45"/>
-      <c r="BC21" s="46"/>
+      <c r="AW21" s="124"/>
+      <c r="AX21" s="124"/>
+      <c r="AY21" s="124"/>
+      <c r="AZ21" s="124"/>
+      <c r="BA21" s="124"/>
+      <c r="BB21" s="124"/>
+      <c r="BC21" s="125"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
       <c r="BF21" s="7"/>
@@ -12923,61 +12970,61 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="42">
+      <c r="G22" s="100">
         <v>1</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="47" t="s">
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="47" t="s">
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="49"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="127"/>
+      <c r="AJ22" s="127"/>
+      <c r="AK22" s="127"/>
+      <c r="AL22" s="127"/>
+      <c r="AM22" s="127"/>
+      <c r="AN22" s="127"/>
+      <c r="AO22" s="127"/>
+      <c r="AP22" s="127"/>
+      <c r="AQ22" s="127"/>
+      <c r="AR22" s="127"/>
+      <c r="AS22" s="127"/>
+      <c r="AT22" s="127"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="126"/>
+      <c r="AW22" s="127"/>
+      <c r="AX22" s="127"/>
+      <c r="AY22" s="127"/>
+      <c r="AZ22" s="127"/>
+      <c r="BA22" s="127"/>
+      <c r="BB22" s="127"/>
+      <c r="BC22" s="128"/>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
       <c r="BF22" s="7"/>
@@ -12989,61 +13036,61 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="57">
+      <c r="G23" s="38">
         <v>2</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="54" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="54" t="s">
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="132"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="55"/>
-      <c r="BC23" s="56"/>
+      <c r="AD23" s="132"/>
+      <c r="AE23" s="132"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="132"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="132"/>
+      <c r="AL23" s="132"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="132"/>
+      <c r="AQ23" s="132"/>
+      <c r="AR23" s="132"/>
+      <c r="AS23" s="132"/>
+      <c r="AT23" s="132"/>
+      <c r="AU23" s="133"/>
+      <c r="AV23" s="131"/>
+      <c r="AW23" s="132"/>
+      <c r="AX23" s="132"/>
+      <c r="AY23" s="132"/>
+      <c r="AZ23" s="132"/>
+      <c r="BA23" s="132"/>
+      <c r="BB23" s="132"/>
+      <c r="BC23" s="133"/>
       <c r="BD23" s="7"/>
       <c r="BE23" s="7"/>
       <c r="BF23" s="7"/>
@@ -13421,65 +13468,65 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43" t="s">
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43" t="s">
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43" t="s">
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43" t="s">
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
+      <c r="AQ30" s="101"/>
+      <c r="AR30" s="101"/>
+      <c r="AS30" s="101"/>
+      <c r="AT30" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="43"/>
-      <c r="BB30" s="43"/>
-      <c r="BC30" s="43"/>
+      <c r="AU30" s="101"/>
+      <c r="AV30" s="101"/>
+      <c r="AW30" s="101"/>
+      <c r="AX30" s="101"/>
+      <c r="AY30" s="101"/>
+      <c r="AZ30" s="101"/>
+      <c r="BA30" s="101"/>
+      <c r="BB30" s="101"/>
+      <c r="BC30" s="101"/>
       <c r="BG30" s="11"/>
     </row>
     <row r="31" spans="2:59" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -13488,63 +13535,63 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="52">
+      <c r="G31" s="129">
         <v>1</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="38" t="s">
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38" t="s">
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38" t="s">
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="102"/>
+      <c r="AO31" s="102"/>
+      <c r="AP31" s="102"/>
+      <c r="AQ31" s="102"/>
+      <c r="AR31" s="102"/>
+      <c r="AS31" s="102"/>
+      <c r="AT31" s="130"/>
+      <c r="AU31" s="130"/>
+      <c r="AV31" s="130"/>
+      <c r="AW31" s="130"/>
+      <c r="AX31" s="130"/>
+      <c r="AY31" s="130"/>
+      <c r="AZ31" s="130"/>
+      <c r="BA31" s="130"/>
+      <c r="BB31" s="130"/>
+      <c r="BC31" s="130"/>
       <c r="BG31" s="11"/>
     </row>
     <row r="32" spans="2:59" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13553,65 +13600,65 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="42">
+      <c r="G32" s="100">
         <v>2</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="50" t="s">
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="50"/>
-      <c r="AI32" s="50" t="s">
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AJ32" s="50"/>
-      <c r="AK32" s="50"/>
-      <c r="AL32" s="50"/>
-      <c r="AM32" s="50"/>
-      <c r="AN32" s="50"/>
-      <c r="AO32" s="50"/>
-      <c r="AP32" s="50"/>
-      <c r="AQ32" s="50"/>
-      <c r="AR32" s="50"/>
-      <c r="AS32" s="50"/>
-      <c r="AT32" s="51" t="s">
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AU32" s="51"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
+      <c r="AU32" s="46"/>
+      <c r="AV32" s="46"/>
+      <c r="AW32" s="46"/>
+      <c r="AX32" s="46"/>
+      <c r="AY32" s="46"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
       <c r="BG32" s="11"/>
     </row>
     <row r="33" spans="2:59" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13620,65 +13667,65 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="42">
+      <c r="G33" s="100">
         <v>3</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="50" t="s">
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50" t="s">
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50" t="s">
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50"/>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50"/>
-      <c r="AN33" s="50"/>
-      <c r="AO33" s="50"/>
-      <c r="AP33" s="50"/>
-      <c r="AQ33" s="50"/>
-      <c r="AR33" s="50"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="51" t="s">
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="AU33" s="51"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="51"/>
+      <c r="AU33" s="46"/>
+      <c r="AV33" s="46"/>
+      <c r="AW33" s="46"/>
+      <c r="AX33" s="46"/>
+      <c r="AY33" s="46"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="46"/>
+      <c r="BB33" s="46"/>
+      <c r="BC33" s="46"/>
       <c r="BG33" s="11"/>
     </row>
     <row r="34" spans="2:59" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13687,65 +13734,65 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="42">
+      <c r="G34" s="100">
         <v>4</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="50" t="s">
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50" t="s">
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50"/>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="50"/>
-      <c r="AT34" s="51" t="s">
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
+      <c r="AU34" s="46"/>
+      <c r="AV34" s="46"/>
+      <c r="AW34" s="46"/>
+      <c r="AX34" s="46"/>
+      <c r="AY34" s="46"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="46"/>
+      <c r="BB34" s="46"/>
+      <c r="BC34" s="46"/>
       <c r="BG34" s="11"/>
     </row>
     <row r="35" spans="2:59" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13754,63 +13801,63 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="42">
+      <c r="G35" s="100">
         <v>5</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="50" t="s">
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50" t="s">
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="50"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="45"/>
+      <c r="AS35" s="45"/>
+      <c r="AT35" s="46"/>
+      <c r="AU35" s="46"/>
+      <c r="AV35" s="46"/>
+      <c r="AW35" s="46"/>
+      <c r="AX35" s="46"/>
+      <c r="AY35" s="46"/>
+      <c r="AZ35" s="46"/>
+      <c r="BA35" s="46"/>
+      <c r="BB35" s="46"/>
+      <c r="BC35" s="46"/>
       <c r="BG35" s="11"/>
     </row>
     <row r="36" spans="2:59" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13819,65 +13866,65 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="57">
+      <c r="G36" s="38">
         <v>6</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="75" t="s">
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75" t="s">
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="V36" s="75"/>
-      <c r="W36" s="75"/>
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="75"/>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="75" t="s">
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="75"/>
-      <c r="AL36" s="75"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="75"/>
-      <c r="AP36" s="75"/>
-      <c r="AQ36" s="75"/>
-      <c r="AR36" s="75"/>
-      <c r="AS36" s="75"/>
-      <c r="AT36" s="85" t="s">
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
+      <c r="AT36" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="AU36" s="85"/>
-      <c r="AV36" s="85"/>
-      <c r="AW36" s="85"/>
-      <c r="AX36" s="85"/>
-      <c r="AY36" s="85"/>
-      <c r="AZ36" s="85"/>
-      <c r="BA36" s="85"/>
-      <c r="BB36" s="85"/>
-      <c r="BC36" s="85"/>
+      <c r="AU36" s="82"/>
+      <c r="AV36" s="82"/>
+      <c r="AW36" s="82"/>
+      <c r="AX36" s="82"/>
+      <c r="AY36" s="82"/>
+      <c r="AZ36" s="82"/>
+      <c r="BA36" s="82"/>
+      <c r="BB36" s="82"/>
+      <c r="BC36" s="82"/>
       <c r="BG36" s="11"/>
     </row>
     <row r="37" spans="2:59" ht="20.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -14008,64 +14055,64 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="124" t="s">
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="125"/>
-      <c r="U39" s="126" t="s">
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="V39" s="127"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="125" t="s">
+      <c r="V39" s="48"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="125"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="125"/>
-      <c r="AD39" s="125"/>
-      <c r="AE39" s="125"/>
-      <c r="AF39" s="126" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="127"/>
-      <c r="AI39" s="127"/>
-      <c r="AJ39" s="128"/>
-      <c r="AK39" s="126" t="s">
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AL39" s="127"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="127"/>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="126" t="s">
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="AQ39" s="127"/>
-      <c r="AR39" s="127"/>
-      <c r="AS39" s="127"/>
-      <c r="AT39" s="127"/>
-      <c r="AU39" s="127"/>
-      <c r="AV39" s="127"/>
-      <c r="AW39" s="127"/>
-      <c r="AX39" s="127"/>
-      <c r="AY39" s="127"/>
-      <c r="AZ39" s="132"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="53"/>
       <c r="BD39" s="7"/>
       <c r="BE39" s="7"/>
       <c r="BF39" s="7"/>
@@ -14077,66 +14124,66 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="88"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="90" t="s">
+      <c r="H40" s="85"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="129" t="s">
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="129" t="s">
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="131"/>
-      <c r="AF40" s="129" t="s">
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="AG40" s="130"/>
-      <c r="AH40" s="130"/>
-      <c r="AI40" s="130"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="129" t="s">
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AL40" s="130"/>
-      <c r="AM40" s="130"/>
-      <c r="AN40" s="130"/>
-      <c r="AO40" s="131"/>
-      <c r="AP40" s="129" t="s">
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="52"/>
+      <c r="AP40" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AQ40" s="130"/>
-      <c r="AR40" s="130"/>
-      <c r="AS40" s="130"/>
-      <c r="AT40" s="130"/>
-      <c r="AU40" s="130"/>
-      <c r="AV40" s="130"/>
-      <c r="AW40" s="130"/>
-      <c r="AX40" s="130"/>
-      <c r="AY40" s="130"/>
-      <c r="AZ40" s="133"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="54"/>
       <c r="BD40" s="7"/>
       <c r="BE40" s="7"/>
       <c r="BF40" s="7"/>
@@ -14961,58 +15008,58 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="86" t="s">
+      <c r="G55" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="92" t="s">
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="93"/>
-      <c r="S55" s="93"/>
-      <c r="T55" s="93"/>
-      <c r="U55" s="93"/>
-      <c r="V55" s="93"/>
-      <c r="W55" s="93"/>
-      <c r="X55" s="93"/>
-      <c r="Y55" s="93"/>
-      <c r="Z55" s="93"/>
-      <c r="AA55" s="93"/>
-      <c r="AB55" s="93"/>
-      <c r="AC55" s="93"/>
-      <c r="AD55" s="93"/>
-      <c r="AE55" s="93"/>
-      <c r="AF55" s="93"/>
-      <c r="AG55" s="93"/>
-      <c r="AH55" s="93"/>
-      <c r="AI55" s="93"/>
-      <c r="AJ55" s="93"/>
-      <c r="AK55" s="93"/>
-      <c r="AL55" s="93"/>
-      <c r="AM55" s="93"/>
-      <c r="AN55" s="93"/>
-      <c r="AO55" s="93"/>
-      <c r="AP55" s="93"/>
-      <c r="AQ55" s="93"/>
-      <c r="AR55" s="93"/>
-      <c r="AS55" s="93"/>
-      <c r="AT55" s="93"/>
-      <c r="AU55" s="93"/>
-      <c r="AV55" s="93"/>
-      <c r="AW55" s="93"/>
-      <c r="AX55" s="93"/>
-      <c r="AY55" s="93"/>
-      <c r="AZ55" s="93"/>
-      <c r="BA55" s="93"/>
-      <c r="BB55" s="94"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="90"/>
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="90"/>
+      <c r="AG55" s="90"/>
+      <c r="AH55" s="90"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="90"/>
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="90"/>
+      <c r="AO55" s="90"/>
+      <c r="AP55" s="90"/>
+      <c r="AQ55" s="90"/>
+      <c r="AR55" s="90"/>
+      <c r="AS55" s="90"/>
+      <c r="AT55" s="90"/>
+      <c r="AU55" s="90"/>
+      <c r="AV55" s="90"/>
+      <c r="AW55" s="90"/>
+      <c r="AX55" s="90"/>
+      <c r="AY55" s="90"/>
+      <c r="AZ55" s="90"/>
+      <c r="BA55" s="90"/>
+      <c r="BB55" s="91"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="7"/>
       <c r="BE55" s="7"/>
@@ -15025,60 +15072,60 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="147" t="s">
+      <c r="G56" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147" t="s">
+      <c r="H56" s="138"/>
+      <c r="I56" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
-      <c r="O56" s="147"/>
-      <c r="P56" s="82" t="s">
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-      <c r="T56" s="83"/>
-      <c r="U56" s="83"/>
-      <c r="V56" s="83"/>
-      <c r="W56" s="83"/>
-      <c r="X56" s="83"/>
-      <c r="Y56" s="83"/>
-      <c r="Z56" s="83"/>
-      <c r="AA56" s="83"/>
-      <c r="AB56" s="83"/>
-      <c r="AC56" s="83"/>
-      <c r="AD56" s="83"/>
-      <c r="AE56" s="83"/>
-      <c r="AF56" s="83"/>
-      <c r="AG56" s="83"/>
-      <c r="AH56" s="83"/>
-      <c r="AI56" s="83"/>
-      <c r="AJ56" s="83"/>
-      <c r="AK56" s="83"/>
-      <c r="AL56" s="83"/>
-      <c r="AM56" s="83"/>
-      <c r="AN56" s="83"/>
-      <c r="AO56" s="83"/>
-      <c r="AP56" s="83"/>
-      <c r="AQ56" s="83"/>
-      <c r="AR56" s="83"/>
-      <c r="AS56" s="83"/>
-      <c r="AT56" s="83"/>
-      <c r="AU56" s="83"/>
-      <c r="AV56" s="83"/>
-      <c r="AW56" s="83"/>
-      <c r="AX56" s="83"/>
-      <c r="AY56" s="83"/>
-      <c r="AZ56" s="83"/>
-      <c r="BA56" s="83"/>
-      <c r="BB56" s="84"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="80"/>
+      <c r="AM56" s="80"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="80"/>
+      <c r="AP56" s="80"/>
+      <c r="AQ56" s="80"/>
+      <c r="AR56" s="80"/>
+      <c r="AS56" s="80"/>
+      <c r="AT56" s="80"/>
+      <c r="AU56" s="80"/>
+      <c r="AV56" s="80"/>
+      <c r="AW56" s="80"/>
+      <c r="AX56" s="80"/>
+      <c r="AY56" s="80"/>
+      <c r="AZ56" s="80"/>
+      <c r="BA56" s="80"/>
+      <c r="BB56" s="81"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="7"/>
       <c r="BE56" s="7"/>
@@ -15091,60 +15138,60 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="148" t="s">
+      <c r="G57" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="148"/>
-      <c r="I57" s="148" t="s">
+      <c r="H57" s="134"/>
+      <c r="I57" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="148"/>
-      <c r="K57" s="148"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="148"/>
-      <c r="P57" s="149" t="s">
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="134"/>
+      <c r="P57" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
-      <c r="Z57" s="80"/>
-      <c r="AA57" s="80"/>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="80"/>
-      <c r="AD57" s="80"/>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="80"/>
-      <c r="AL57" s="80"/>
-      <c r="AM57" s="80"/>
-      <c r="AN57" s="80"/>
-      <c r="AO57" s="80"/>
-      <c r="AP57" s="80"/>
-      <c r="AQ57" s="80"/>
-      <c r="AR57" s="80"/>
-      <c r="AS57" s="80"/>
-      <c r="AT57" s="80"/>
-      <c r="AU57" s="80"/>
-      <c r="AV57" s="80"/>
-      <c r="AW57" s="80"/>
-      <c r="AX57" s="80"/>
-      <c r="AY57" s="80"/>
-      <c r="AZ57" s="80"/>
-      <c r="BA57" s="80"/>
-      <c r="BB57" s="81"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="77"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="77"/>
+      <c r="AJ57" s="77"/>
+      <c r="AK57" s="77"/>
+      <c r="AL57" s="77"/>
+      <c r="AM57" s="77"/>
+      <c r="AN57" s="77"/>
+      <c r="AO57" s="77"/>
+      <c r="AP57" s="77"/>
+      <c r="AQ57" s="77"/>
+      <c r="AR57" s="77"/>
+      <c r="AS57" s="77"/>
+      <c r="AT57" s="77"/>
+      <c r="AU57" s="77"/>
+      <c r="AV57" s="77"/>
+      <c r="AW57" s="77"/>
+      <c r="AX57" s="77"/>
+      <c r="AY57" s="77"/>
+      <c r="AZ57" s="77"/>
+      <c r="BA57" s="77"/>
+      <c r="BB57" s="78"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="7"/>
       <c r="BE57" s="7"/>
@@ -15157,60 +15204,60 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="150" t="s">
+      <c r="G58" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150" t="s">
+      <c r="H58" s="136"/>
+      <c r="I58" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="150"/>
-      <c r="P58" s="151" t="s">
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="77"/>
-      <c r="S58" s="77"/>
-      <c r="T58" s="77"/>
-      <c r="U58" s="77"/>
-      <c r="V58" s="77"/>
-      <c r="W58" s="77"/>
-      <c r="X58" s="77"/>
-      <c r="Y58" s="77"/>
-      <c r="Z58" s="77"/>
-      <c r="AA58" s="77"/>
-      <c r="AB58" s="77"/>
-      <c r="AC58" s="77"/>
-      <c r="AD58" s="77"/>
-      <c r="AE58" s="77"/>
-      <c r="AF58" s="77"/>
-      <c r="AG58" s="77"/>
-      <c r="AH58" s="77"/>
-      <c r="AI58" s="77"/>
-      <c r="AJ58" s="77"/>
-      <c r="AK58" s="77"/>
-      <c r="AL58" s="77"/>
-      <c r="AM58" s="77"/>
-      <c r="AN58" s="77"/>
-      <c r="AO58" s="77"/>
-      <c r="AP58" s="77"/>
-      <c r="AQ58" s="77"/>
-      <c r="AR58" s="77"/>
-      <c r="AS58" s="77"/>
-      <c r="AT58" s="77"/>
-      <c r="AU58" s="77"/>
-      <c r="AV58" s="77"/>
-      <c r="AW58" s="77"/>
-      <c r="AX58" s="77"/>
-      <c r="AY58" s="77"/>
-      <c r="AZ58" s="77"/>
-      <c r="BA58" s="77"/>
-      <c r="BB58" s="78"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="74"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
+      <c r="X58" s="74"/>
+      <c r="Y58" s="74"/>
+      <c r="Z58" s="74"/>
+      <c r="AA58" s="74"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="74"/>
+      <c r="AQ58" s="74"/>
+      <c r="AR58" s="74"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="74"/>
+      <c r="AU58" s="74"/>
+      <c r="AV58" s="74"/>
+      <c r="AW58" s="74"/>
+      <c r="AX58" s="74"/>
+      <c r="AY58" s="74"/>
+      <c r="AZ58" s="74"/>
+      <c r="BA58" s="74"/>
+      <c r="BB58" s="75"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="7"/>
       <c r="BE58" s="7"/>
@@ -15651,70 +15698,70 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="105" t="s">
+      <c r="G66" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="118" t="s">
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="119"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="118" t="s">
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="72"/>
+      <c r="Q66" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="R66" s="119"/>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="119"/>
-      <c r="V66" s="120"/>
-      <c r="W66" s="118" t="s">
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="72"/>
+      <c r="W66" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="X66" s="119"/>
-      <c r="Y66" s="119"/>
-      <c r="Z66" s="119"/>
-      <c r="AA66" s="119"/>
-      <c r="AB66" s="119"/>
-      <c r="AC66" s="119"/>
-      <c r="AD66" s="119"/>
-      <c r="AE66" s="119"/>
-      <c r="AF66" s="119"/>
-      <c r="AG66" s="119"/>
-      <c r="AH66" s="119"/>
-      <c r="AI66" s="119"/>
-      <c r="AJ66" s="119"/>
-      <c r="AK66" s="119"/>
-      <c r="AL66" s="119"/>
-      <c r="AM66" s="120"/>
-      <c r="AN66" s="104" t="s">
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
+      <c r="AH66" s="71"/>
+      <c r="AI66" s="71"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="71"/>
+      <c r="AL66" s="71"/>
+      <c r="AM66" s="72"/>
+      <c r="AN66" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AO66" s="104"/>
-      <c r="AP66" s="104"/>
-      <c r="AQ66" s="104"/>
-      <c r="AR66" s="104" t="s">
+      <c r="AO66" s="55"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AS66" s="104"/>
-      <c r="AT66" s="104"/>
-      <c r="AU66" s="104" t="s">
+      <c r="AS66" s="55"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AV66" s="105"/>
-      <c r="AW66" s="105"/>
-      <c r="AX66" s="105" t="s">
+      <c r="AV66" s="56"/>
+      <c r="AW66" s="56"/>
+      <c r="AX66" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AY66" s="105"/>
-      <c r="AZ66" s="105"/>
-      <c r="BA66" s="105"/>
-      <c r="BB66" s="105"/>
+      <c r="AY66" s="56"/>
+      <c r="AZ66" s="56"/>
+      <c r="BA66" s="56"/>
+      <c r="BB66" s="56"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="7"/>
       <c r="BE66" s="7"/>
@@ -15727,68 +15774,68 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="134">
+      <c r="G67" s="139">
         <v>1</v>
       </c>
-      <c r="H67" s="134"/>
-      <c r="I67" s="134"/>
-      <c r="J67" s="135" t="s">
+      <c r="H67" s="139"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="136"/>
-      <c r="P67" s="137"/>
-      <c r="Q67" s="135" t="s">
+      <c r="K67" s="141"/>
+      <c r="L67" s="141"/>
+      <c r="M67" s="141"/>
+      <c r="N67" s="141"/>
+      <c r="O67" s="141"/>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="R67" s="136"/>
-      <c r="S67" s="136"/>
-      <c r="T67" s="136"/>
-      <c r="U67" s="136"/>
-      <c r="V67" s="137"/>
-      <c r="W67" s="138" t="s">
+      <c r="R67" s="141"/>
+      <c r="S67" s="141"/>
+      <c r="T67" s="141"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="142"/>
+      <c r="W67" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="X67" s="139"/>
-      <c r="Y67" s="139"/>
-      <c r="Z67" s="139"/>
-      <c r="AA67" s="139"/>
-      <c r="AB67" s="139"/>
-      <c r="AC67" s="139"/>
-      <c r="AD67" s="139"/>
-      <c r="AE67" s="139"/>
-      <c r="AF67" s="139"/>
-      <c r="AG67" s="139"/>
-      <c r="AH67" s="139"/>
-      <c r="AI67" s="139"/>
-      <c r="AJ67" s="139"/>
-      <c r="AK67" s="139"/>
-      <c r="AL67" s="139"/>
-      <c r="AM67" s="140"/>
-      <c r="AN67" s="141" t="s">
+      <c r="X67" s="144"/>
+      <c r="Y67" s="144"/>
+      <c r="Z67" s="144"/>
+      <c r="AA67" s="144"/>
+      <c r="AB67" s="144"/>
+      <c r="AC67" s="144"/>
+      <c r="AD67" s="144"/>
+      <c r="AE67" s="144"/>
+      <c r="AF67" s="144"/>
+      <c r="AG67" s="144"/>
+      <c r="AH67" s="144"/>
+      <c r="AI67" s="144"/>
+      <c r="AJ67" s="144"/>
+      <c r="AK67" s="144"/>
+      <c r="AL67" s="144"/>
+      <c r="AM67" s="145"/>
+      <c r="AN67" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="AO67" s="142"/>
-      <c r="AP67" s="142"/>
-      <c r="AQ67" s="143"/>
-      <c r="AR67" s="144" t="s">
+      <c r="AO67" s="147"/>
+      <c r="AP67" s="147"/>
+      <c r="AQ67" s="148"/>
+      <c r="AR67" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="AS67" s="145"/>
-      <c r="AT67" s="146"/>
-      <c r="AU67" s="141" t="s">
+      <c r="AS67" s="150"/>
+      <c r="AT67" s="151"/>
+      <c r="AU67" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="AV67" s="142"/>
-      <c r="AW67" s="143"/>
-      <c r="AX67" s="134"/>
-      <c r="AY67" s="134"/>
-      <c r="AZ67" s="134"/>
-      <c r="BA67" s="134"/>
-      <c r="BB67" s="134"/>
+      <c r="AV67" s="147"/>
+      <c r="AW67" s="148"/>
+      <c r="AX67" s="139"/>
+      <c r="AY67" s="139"/>
+      <c r="AZ67" s="139"/>
+      <c r="BA67" s="139"/>
+      <c r="BB67" s="139"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="7"/>
       <c r="BE67" s="7"/>
@@ -16523,17 +16570,79 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:O57"/>
-    <mergeCell ref="P57:BB57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:O58"/>
-    <mergeCell ref="P58:BB58"/>
-    <mergeCell ref="G55:O55"/>
-    <mergeCell ref="P55:BB55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:O56"/>
-    <mergeCell ref="P56:BB56"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:T36"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:T40"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:AE39"/>
+    <mergeCell ref="AF39:AJ39"/>
+    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AI35:AS35"/>
+    <mergeCell ref="U36:AH36"/>
+    <mergeCell ref="AI36:AS36"/>
+    <mergeCell ref="AP39:AZ39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:AE40"/>
+    <mergeCell ref="AF40:AJ40"/>
+    <mergeCell ref="AK40:AO40"/>
+    <mergeCell ref="AP40:AZ40"/>
+    <mergeCell ref="AV23:BC23"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:T30"/>
+    <mergeCell ref="U30:AH30"/>
+    <mergeCell ref="AI30:AS30"/>
+    <mergeCell ref="AT30:BC30"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="AT36:BC36"/>
+    <mergeCell ref="AT35:BC35"/>
+    <mergeCell ref="AT33:BC33"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:T32"/>
+    <mergeCell ref="U32:AH32"/>
+    <mergeCell ref="AI32:AS32"/>
+    <mergeCell ref="AT32:BC32"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:T34"/>
+    <mergeCell ref="U34:AH34"/>
+    <mergeCell ref="AI34:AS34"/>
+    <mergeCell ref="AT34:BC34"/>
+    <mergeCell ref="J35:T35"/>
+    <mergeCell ref="U35:AH35"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="J2:O3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="W2:AB3"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:T33"/>
+    <mergeCell ref="U33:AH33"/>
+    <mergeCell ref="AI33:AS33"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AU23"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:T31"/>
+    <mergeCell ref="U31:AH31"/>
+    <mergeCell ref="AI31:AS31"/>
+    <mergeCell ref="AT31:BC31"/>
+    <mergeCell ref="AC2:AI3"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC22:AU22"/>
+    <mergeCell ref="AV22:BC22"/>
+    <mergeCell ref="AJ2:AO3"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="AC21:AU21"/>
+    <mergeCell ref="AV21:BC21"/>
+    <mergeCell ref="B1:I3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AI1"/>
     <mergeCell ref="AR66:AT66"/>
     <mergeCell ref="AU66:AW66"/>
     <mergeCell ref="AX66:BB66"/>
@@ -16550,84 +16659,22 @@
     <mergeCell ref="Q66:V66"/>
     <mergeCell ref="W66:AM66"/>
     <mergeCell ref="AN66:AQ66"/>
-    <mergeCell ref="AC2:AI3"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC22:AU22"/>
-    <mergeCell ref="AV22:BC22"/>
-    <mergeCell ref="AJ2:AO3"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="AC21:AU21"/>
-    <mergeCell ref="AV21:BC21"/>
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="J2:O3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="W2:AB3"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:T33"/>
-    <mergeCell ref="U33:AH33"/>
-    <mergeCell ref="AI33:AS33"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AU23"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:T31"/>
-    <mergeCell ref="U31:AH31"/>
-    <mergeCell ref="AI31:AS31"/>
-    <mergeCell ref="AT31:BC31"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="AT36:BC36"/>
-    <mergeCell ref="AT35:BC35"/>
-    <mergeCell ref="AT33:BC33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:T32"/>
-    <mergeCell ref="U32:AH32"/>
-    <mergeCell ref="AI32:AS32"/>
-    <mergeCell ref="AT32:BC32"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:T34"/>
-    <mergeCell ref="U34:AH34"/>
-    <mergeCell ref="AI34:AS34"/>
-    <mergeCell ref="AT34:BC34"/>
-    <mergeCell ref="J35:T35"/>
-    <mergeCell ref="U35:AH35"/>
-    <mergeCell ref="AV23:BC23"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:T30"/>
-    <mergeCell ref="U30:AH30"/>
-    <mergeCell ref="AI30:AS30"/>
-    <mergeCell ref="AT30:BC30"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:AE40"/>
-    <mergeCell ref="AF40:AJ40"/>
-    <mergeCell ref="AK40:AO40"/>
-    <mergeCell ref="AP40:AZ40"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:AE39"/>
-    <mergeCell ref="AF39:AJ39"/>
-    <mergeCell ref="AK39:AO39"/>
-    <mergeCell ref="AI35:AS35"/>
-    <mergeCell ref="U36:AH36"/>
-    <mergeCell ref="AI36:AS36"/>
-    <mergeCell ref="AP39:AZ39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:T36"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:T40"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:T39"/>
+    <mergeCell ref="G55:O55"/>
+    <mergeCell ref="P55:BB55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:O56"/>
+    <mergeCell ref="P56:BB56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:O57"/>
+    <mergeCell ref="P57:BB57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:O58"/>
+    <mergeCell ref="P58:BB58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -16642,8 +16689,8 @@
   </sheetPr>
   <dimension ref="B1:BR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16669,152 +16716,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="66" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="67" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="66" t="s">
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
     </row>
     <row r="2" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="64" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65" t="s">
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="157">
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="160">
         <v>43826</v>
       </c>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="65" t="s">
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="157">
-        <v>44804</v>
-      </c>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="159"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="160">
+        <v>45135</v>
+      </c>
+      <c r="AK2" s="161"/>
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="162"/>
     </row>
     <row r="3" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="161"/>
-      <c r="AL3" s="161"/>
-      <c r="AM3" s="161"/>
-      <c r="AN3" s="161"/>
-      <c r="AO3" s="162"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="164"/>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="165"/>
     </row>
     <row r="4" spans="2:70" s="28" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="26"/>
@@ -18256,12 +18303,12 @@
       <c r="BH21" s="34"/>
       <c r="BI21" s="34"/>
       <c r="BJ21" s="35"/>
-      <c r="BK21" s="152" t="s">
+      <c r="BK21" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="154"/>
+      <c r="BL21" s="156"/>
+      <c r="BM21" s="156"/>
+      <c r="BN21" s="157"/>
       <c r="BR21" s="25" t="str">
         <f t="shared" ref="BR21" si="17">B21&amp;" = "&amp;U21</f>
         <v>I200001 = 学習モデル作成詳細ログ出力開始</v>
@@ -18338,12 +18385,12 @@
       <c r="BH22" s="34"/>
       <c r="BI22" s="34"/>
       <c r="BJ22" s="35"/>
-      <c r="BK22" s="152" t="s">
+      <c r="BK22" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="154"/>
+      <c r="BL22" s="156"/>
+      <c r="BM22" s="156"/>
+      <c r="BN22" s="157"/>
       <c r="BR22" s="25" t="str">
         <f t="shared" ref="BR22:BR23" si="19">B22&amp;" = "&amp;U22</f>
         <v>I200002 = 学習モデル作成詳細ログ出力終了</v>
@@ -18420,12 +18467,12 @@
       <c r="BH23" s="34"/>
       <c r="BI23" s="34"/>
       <c r="BJ23" s="35"/>
-      <c r="BK23" s="152" t="s">
+      <c r="BK23" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="154"/>
+      <c r="BL23" s="156"/>
+      <c r="BM23" s="156"/>
+      <c r="BN23" s="157"/>
       <c r="BR23" s="25" t="str">
         <f t="shared" si="19"/>
         <v>I400001 = 登録シート名：%%(input_file_name)s　施設ID：%%(fid)s　条件：%%(cond)s　N数：%%(num)s</v>
@@ -18455,45 +18502,45 @@
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24" s="35"/>
-      <c r="U24" s="155" t="s">
+      <c r="U24" s="158" t="s">
         <v>392</v>
       </c>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="156"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="156"/>
-      <c r="AJ24" s="156"/>
-      <c r="AK24" s="156"/>
-      <c r="AL24" s="156"/>
-      <c r="AM24" s="156"/>
-      <c r="AN24" s="156"/>
-      <c r="AO24" s="156"/>
-      <c r="AP24" s="156"/>
-      <c r="AQ24" s="156"/>
-      <c r="AR24" s="156"/>
-      <c r="AS24" s="156"/>
-      <c r="AT24" s="156"/>
-      <c r="AU24" s="156"/>
-      <c r="AV24" s="156"/>
-      <c r="AW24" s="156"/>
-      <c r="AX24" s="156"/>
-      <c r="AY24" s="156"/>
-      <c r="AZ24" s="156"/>
-      <c r="BA24" s="156"/>
-      <c r="BB24" s="156"/>
-      <c r="BC24" s="156"/>
-      <c r="BD24" s="156"/>
-      <c r="BE24" s="156"/>
+      <c r="V24" s="159"/>
+      <c r="W24" s="159"/>
+      <c r="X24" s="159"/>
+      <c r="Y24" s="159"/>
+      <c r="Z24" s="159"/>
+      <c r="AA24" s="159"/>
+      <c r="AB24" s="159"/>
+      <c r="AC24" s="159"/>
+      <c r="AD24" s="159"/>
+      <c r="AE24" s="159"/>
+      <c r="AF24" s="159"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="159"/>
+      <c r="AJ24" s="159"/>
+      <c r="AK24" s="159"/>
+      <c r="AL24" s="159"/>
+      <c r="AM24" s="159"/>
+      <c r="AN24" s="159"/>
+      <c r="AO24" s="159"/>
+      <c r="AP24" s="159"/>
+      <c r="AQ24" s="159"/>
+      <c r="AR24" s="159"/>
+      <c r="AS24" s="159"/>
+      <c r="AT24" s="159"/>
+      <c r="AU24" s="159"/>
+      <c r="AV24" s="159"/>
+      <c r="AW24" s="159"/>
+      <c r="AX24" s="159"/>
+      <c r="AY24" s="159"/>
+      <c r="AZ24" s="159"/>
+      <c r="BA24" s="159"/>
+      <c r="BB24" s="159"/>
+      <c r="BC24" s="159"/>
+      <c r="BD24" s="159"/>
+      <c r="BE24" s="159"/>
       <c r="BF24" s="35"/>
       <c r="BG24" s="21" t="str">
         <f t="shared" si="18"/>
@@ -18502,12 +18549,12 @@
       <c r="BH24" s="34"/>
       <c r="BI24" s="34"/>
       <c r="BJ24" s="35"/>
-      <c r="BK24" s="152" t="s">
+      <c r="BK24" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="BL24" s="153"/>
-      <c r="BM24" s="153"/>
-      <c r="BN24" s="154"/>
+      <c r="BL24" s="156"/>
+      <c r="BM24" s="156"/>
+      <c r="BN24" s="157"/>
       <c r="BR24" s="25" t="str">
         <f t="shared" ref="BR24" si="20">B24&amp;" = "&amp;U24</f>
         <v>I400002 = 登録シート名：%%(input_file_name)s　群ID：%%(group_id)s　N数：%%(num)s　エンドポイント_平均値：%%(ep_mean)s　エンドポイント_中央値：%%(ep_median)s</v>
@@ -21079,7 +21126,9 @@
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>
       <c r="T56" s="35"/>
-      <c r="U56" s="24"/>
+      <c r="U56" s="24" t="s">
+        <v>515</v>
+      </c>
       <c r="V56" s="34"/>
       <c r="W56" s="34"/>
       <c r="X56" s="34"/>
@@ -21125,19 +21174,19 @@
       <c r="BI56" s="34"/>
       <c r="BJ56" s="35"/>
       <c r="BK56" s="21" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="BL56" s="34"/>
       <c r="BM56" s="34"/>
       <c r="BN56" s="35"/>
       <c r="BR56" s="25" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">E000105 = </v>
+        <v>E000105 = 上書き取込が実施済みのため、%%(jobName)sは上書き取込オプションありでは実行不可です。</v>
       </c>
     </row>
     <row r="57" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -21242,7 +21291,7 @@
       <c r="S58" s="34"/>
       <c r="T58" s="35"/>
       <c r="U58" s="24" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="V58" s="34"/>
       <c r="W58" s="34"/>
@@ -21289,14 +21338,14 @@
       <c r="BI58" s="34"/>
       <c r="BJ58" s="35"/>
       <c r="BK58" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="BL58" s="34"/>
       <c r="BM58" s="34"/>
       <c r="BN58" s="35"/>
       <c r="BR58" s="25" t="str">
         <f t="shared" ref="BR58" si="39">B58&amp;" = "&amp;U58</f>
-        <v>E000107 = %%(filename)sに設定されている日付がシステム日付と異なるため、%%(currentProcess)sは実行不可です。</v>
+        <v>E000107 = %%(filename)sに設定されている日付がシステム日付と異なるため、%%(jobName)sは実行不可です。</v>
       </c>
     </row>
     <row r="59" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -21370,12 +21419,12 @@
       <c r="BH59" s="34"/>
       <c r="BI59" s="34"/>
       <c r="BJ59" s="35"/>
-      <c r="BK59" s="152" t="s">
+      <c r="BK59" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="BL59" s="153"/>
-      <c r="BM59" s="153"/>
-      <c r="BN59" s="154"/>
+      <c r="BL59" s="156"/>
+      <c r="BM59" s="156"/>
+      <c r="BN59" s="157"/>
       <c r="BR59" s="25" t="str">
         <f t="shared" ref="BR59:BR61" si="41">B59&amp;" = "&amp;U59</f>
         <v>E100001 = 最新施設情報ファイルが存在しません。</v>
@@ -21452,12 +21501,12 @@
       <c r="BH60" s="34"/>
       <c r="BI60" s="34"/>
       <c r="BJ60" s="35"/>
-      <c r="BK60" s="152" t="s">
+      <c r="BK60" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="BL60" s="153"/>
-      <c r="BM60" s="153"/>
-      <c r="BN60" s="154"/>
+      <c r="BL60" s="156"/>
+      <c r="BM60" s="156"/>
+      <c r="BN60" s="157"/>
       <c r="BR60" s="25" t="str">
         <f t="shared" ref="BR60" si="43">B60&amp;" = "&amp;U60</f>
         <v>E100002 = 新規Zipファイル一覧ファイルが存在しません。</v>
@@ -21534,12 +21583,12 @@
       <c r="BH61" s="34"/>
       <c r="BI61" s="34"/>
       <c r="BJ61" s="35"/>
-      <c r="BK61" s="152" t="s">
+      <c r="BK61" s="155" t="s">
         <v>288</v>
       </c>
-      <c r="BL61" s="153"/>
-      <c r="BM61" s="153"/>
-      <c r="BN61" s="154"/>
+      <c r="BL61" s="156"/>
+      <c r="BM61" s="156"/>
+      <c r="BN61" s="157"/>
       <c r="BR61" s="25" t="str">
         <f t="shared" si="41"/>
         <v>E100003 = 重複Zipファイル一覧ファイルが存在しません。</v>
@@ -21616,12 +21665,12 @@
       <c r="BH62" s="34"/>
       <c r="BI62" s="34"/>
       <c r="BJ62" s="35"/>
-      <c r="BK62" s="152" t="s">
+      <c r="BK62" s="155" t="s">
         <v>289</v>
       </c>
-      <c r="BL62" s="153"/>
-      <c r="BM62" s="153"/>
-      <c r="BN62" s="154"/>
+      <c r="BL62" s="156"/>
+      <c r="BM62" s="156"/>
+      <c r="BN62" s="157"/>
       <c r="BR62" s="25" t="str">
         <f t="shared" ref="BR62" si="45">B62&amp;" = "&amp;U62</f>
         <v>E100004 = 新規Zipファイル一覧ファイルと重複Zipファイル一覧ファイルが存在しません。</v>
@@ -21780,12 +21829,12 @@
       <c r="BH64" s="34"/>
       <c r="BI64" s="34"/>
       <c r="BJ64" s="35"/>
-      <c r="BK64" s="152" t="s">
+      <c r="BK64" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="BL64" s="153"/>
-      <c r="BM64" s="153"/>
-      <c r="BN64" s="154"/>
+      <c r="BL64" s="156"/>
+      <c r="BM64" s="156"/>
+      <c r="BN64" s="157"/>
       <c r="BR64" s="25" t="str">
         <f t="shared" ref="BR64" si="47">B64&amp;" = "&amp;U64</f>
         <v>E200002 = 処理対象患者ID指定ファイル適用で、対象患者ID指定ファイルが存在しません。</v>
@@ -21862,12 +21911,12 @@
       <c r="BH65" s="34"/>
       <c r="BI65" s="34"/>
       <c r="BJ65" s="35"/>
-      <c r="BK65" s="152" t="s">
+      <c r="BK65" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="BL65" s="153"/>
-      <c r="BM65" s="153"/>
-      <c r="BN65" s="154"/>
+      <c r="BL65" s="156"/>
+      <c r="BM65" s="156"/>
+      <c r="BN65" s="157"/>
       <c r="BR65" s="25" t="str">
         <f t="shared" ref="BR65:BR68" si="49">B65&amp;" = "&amp;U65</f>
         <v>E200003 = 機械学習の実行モードの引数が適切に指定されていません。</v>
@@ -21944,12 +21993,12 @@
       <c r="BH66" s="34"/>
       <c r="BI66" s="34"/>
       <c r="BJ66" s="35"/>
-      <c r="BK66" s="152" t="s">
+      <c r="BK66" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="BL66" s="153"/>
-      <c r="BM66" s="153"/>
-      <c r="BN66" s="154"/>
+      <c r="BL66" s="156"/>
+      <c r="BM66" s="156"/>
+      <c r="BN66" s="157"/>
       <c r="BR66" s="25" t="str">
         <f t="shared" si="49"/>
         <v>E300001 = 検索条件設定ファイルが存在しません。</v>
@@ -22026,12 +22075,12 @@
       <c r="BH67" s="34"/>
       <c r="BI67" s="34"/>
       <c r="BJ67" s="35"/>
-      <c r="BK67" s="152" t="s">
+      <c r="BK67" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="BL67" s="153"/>
-      <c r="BM67" s="153"/>
-      <c r="BN67" s="154"/>
+      <c r="BL67" s="156"/>
+      <c r="BM67" s="156"/>
+      <c r="BN67" s="157"/>
       <c r="BR67" s="25" t="str">
         <f t="shared" si="49"/>
         <v>E300002 = 検索条件設定ファイルの検索条件キー名の設定が不正です。キー名：%%(value)s</v>
@@ -22108,12 +22157,12 @@
       <c r="BH68" s="34"/>
       <c r="BI68" s="34"/>
       <c r="BJ68" s="35"/>
-      <c r="BK68" s="152" t="s">
+      <c r="BK68" s="155" t="s">
         <v>318</v>
       </c>
-      <c r="BL68" s="153"/>
-      <c r="BM68" s="153"/>
-      <c r="BN68" s="154"/>
+      <c r="BL68" s="156"/>
+      <c r="BM68" s="156"/>
+      <c r="BN68" s="157"/>
       <c r="BR68" s="25" t="str">
         <f t="shared" si="49"/>
         <v>E300003 = 検索対象CSVのファイルが存在しません。</v>
@@ -22190,12 +22239,12 @@
       <c r="BH69" s="34"/>
       <c r="BI69" s="34"/>
       <c r="BJ69" s="35"/>
-      <c r="BK69" s="152" t="s">
+      <c r="BK69" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="BL69" s="153"/>
-      <c r="BM69" s="153"/>
-      <c r="BN69" s="154"/>
+      <c r="BL69" s="156"/>
+      <c r="BM69" s="156"/>
+      <c r="BN69" s="157"/>
       <c r="BR69" s="25" t="str">
         <f t="shared" ref="BR69" si="51">B69&amp;" = "&amp;U69</f>
         <v>E300004 = 治療ライン作成対象CSVのファイル（yakuzaiData.csv）が存在しません。</v>
@@ -22272,12 +22321,12 @@
       <c r="BH70" s="34"/>
       <c r="BI70" s="34"/>
       <c r="BJ70" s="35"/>
-      <c r="BK70" s="152" t="s">
+      <c r="BK70" s="155" t="s">
         <v>327</v>
       </c>
-      <c r="BL70" s="153"/>
-      <c r="BM70" s="153"/>
-      <c r="BN70" s="154"/>
+      <c r="BL70" s="156"/>
+      <c r="BM70" s="156"/>
+      <c r="BN70" s="157"/>
       <c r="BR70" s="25" t="str">
         <f t="shared" ref="BR70:BR72" si="53">B70&amp;" = "&amp;U70</f>
         <v>E300005 = 形態素解析設定ファイルが存在しません。</v>
@@ -22354,12 +22403,12 @@
       <c r="BH71" s="34"/>
       <c r="BI71" s="34"/>
       <c r="BJ71" s="35"/>
-      <c r="BK71" s="152" t="s">
+      <c r="BK71" s="155" t="s">
         <v>331</v>
       </c>
-      <c r="BL71" s="153"/>
-      <c r="BM71" s="153"/>
-      <c r="BN71" s="154"/>
+      <c r="BL71" s="156"/>
+      <c r="BM71" s="156"/>
+      <c r="BN71" s="157"/>
       <c r="BR71" s="25" t="str">
         <f t="shared" si="53"/>
         <v>E300006 = ユーザ辞書ファイルが存在しません。</v>
@@ -22436,12 +22485,12 @@
       <c r="BH72" s="34"/>
       <c r="BI72" s="34"/>
       <c r="BJ72" s="35"/>
-      <c r="BK72" s="152" t="s">
+      <c r="BK72" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="BL72" s="153"/>
-      <c r="BM72" s="153"/>
-      <c r="BN72" s="154"/>
+      <c r="BL72" s="156"/>
+      <c r="BM72" s="156"/>
+      <c r="BN72" s="157"/>
       <c r="BR72" s="25" t="str">
         <f t="shared" si="53"/>
         <v>E300007 = 形態素解析処理対象ファイルが存在しません。</v>
@@ -22518,12 +22567,12 @@
       <c r="BH73" s="34"/>
       <c r="BI73" s="34"/>
       <c r="BJ73" s="35"/>
-      <c r="BK73" s="152" t="s">
+      <c r="BK73" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="BL73" s="153"/>
-      <c r="BM73" s="153"/>
-      <c r="BN73" s="154"/>
+      <c r="BL73" s="156"/>
+      <c r="BM73" s="156"/>
+      <c r="BN73" s="157"/>
       <c r="BR73" s="25" t="str">
         <f t="shared" ref="BR73:BR76" si="55">B73&amp;" = "&amp;U73</f>
         <v>E300008 = コンパイル済みユーザ辞書ファイルが存在しません。</v>
@@ -22600,12 +22649,12 @@
       <c r="BH74" s="34"/>
       <c r="BI74" s="34"/>
       <c r="BJ74" s="35"/>
-      <c r="BK74" s="152" t="s">
+      <c r="BK74" s="155" t="s">
         <v>345</v>
       </c>
-      <c r="BL74" s="153"/>
-      <c r="BM74" s="153"/>
-      <c r="BN74" s="154"/>
+      <c r="BL74" s="156"/>
+      <c r="BM74" s="156"/>
+      <c r="BN74" s="157"/>
       <c r="BR74" s="25" t="str">
         <f t="shared" si="55"/>
         <v>E300009 = 遺伝子検査テキスト抽出結果設定ファイルが存在しません。</v>
@@ -22682,12 +22731,12 @@
       <c r="BH75" s="34"/>
       <c r="BI75" s="34"/>
       <c r="BJ75" s="35"/>
-      <c r="BK75" s="152" t="s">
+      <c r="BK75" s="155" t="s">
         <v>346</v>
       </c>
-      <c r="BL75" s="153"/>
-      <c r="BM75" s="153"/>
-      <c r="BN75" s="154"/>
+      <c r="BL75" s="156"/>
+      <c r="BM75" s="156"/>
+      <c r="BN75" s="157"/>
       <c r="BR75" s="25" t="str">
         <f t="shared" si="55"/>
         <v>E300010 = 遺伝子検査テキスト抽出結果設定ファイルの検索条件キー名の設定が不正です。キー名：%%(value)s</v>
@@ -22764,12 +22813,12 @@
       <c r="BH76" s="34"/>
       <c r="BI76" s="34"/>
       <c r="BJ76" s="35"/>
-      <c r="BK76" s="152" t="s">
+      <c r="BK76" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="BL76" s="153"/>
-      <c r="BM76" s="153"/>
-      <c r="BN76" s="154"/>
+      <c r="BL76" s="156"/>
+      <c r="BM76" s="156"/>
+      <c r="BN76" s="157"/>
       <c r="BR76" s="25" t="str">
         <f t="shared" si="55"/>
         <v>E300011 = 遺伝子検査テキスト抽出対象CSVのファイルが存在しません。</v>
@@ -22846,12 +22895,12 @@
       <c r="BH77" s="34"/>
       <c r="BI77" s="34"/>
       <c r="BJ77" s="35"/>
-      <c r="BK77" s="152" t="s">
+      <c r="BK77" s="155" t="s">
         <v>358</v>
       </c>
-      <c r="BL77" s="153"/>
-      <c r="BM77" s="153"/>
-      <c r="BN77" s="154"/>
+      <c r="BL77" s="156"/>
+      <c r="BM77" s="156"/>
+      <c r="BN77" s="157"/>
       <c r="BR77" s="25" t="str">
         <f t="shared" ref="BR77:BR86" si="57">B77&amp;" = "&amp;U77</f>
         <v>E300012 = 形態素解析処理対象データがありません。</v>
@@ -22928,12 +22977,12 @@
       <c r="BH78" s="34"/>
       <c r="BI78" s="34"/>
       <c r="BJ78" s="35"/>
-      <c r="BK78" s="152" t="s">
+      <c r="BK78" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="BL78" s="153"/>
-      <c r="BM78" s="153"/>
-      <c r="BN78" s="154"/>
+      <c r="BL78" s="156"/>
+      <c r="BM78" s="156"/>
+      <c r="BN78" s="157"/>
       <c r="BR78" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E400001 = 定義シートがありません。定義シートを所定フォルダに配置してください。</v>
@@ -23010,12 +23059,12 @@
       <c r="BH79" s="34"/>
       <c r="BI79" s="34"/>
       <c r="BJ79" s="35"/>
-      <c r="BK79" s="152" t="s">
+      <c r="BK79" s="155" t="s">
         <v>400</v>
       </c>
-      <c r="BL79" s="153"/>
-      <c r="BM79" s="153"/>
-      <c r="BN79" s="154"/>
+      <c r="BL79" s="156"/>
+      <c r="BM79" s="156"/>
+      <c r="BN79" s="157"/>
       <c r="BR79" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E400002 = 分析処理により作成されるテンポラリファイルが存在しません。分析処理を実行してください。</v>
@@ -23092,12 +23141,12 @@
       <c r="BH80" s="34"/>
       <c r="BI80" s="34"/>
       <c r="BJ80" s="35"/>
-      <c r="BK80" s="152" t="s">
+      <c r="BK80" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="BL80" s="153"/>
-      <c r="BM80" s="153"/>
-      <c r="BN80" s="154"/>
+      <c r="BL80" s="156"/>
+      <c r="BM80" s="156"/>
+      <c r="BN80" s="157"/>
       <c r="BR80" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E400003 = 基本分析支援サービス設定ファイルが存在しません。</v>
@@ -23174,12 +23223,12 @@
       <c r="BH81" s="34"/>
       <c r="BI81" s="34"/>
       <c r="BJ81" s="35"/>
-      <c r="BK81" s="152" t="s">
+      <c r="BK81" s="155" t="s">
         <v>384</v>
       </c>
-      <c r="BL81" s="153"/>
-      <c r="BM81" s="153"/>
-      <c r="BN81" s="154"/>
+      <c r="BL81" s="156"/>
+      <c r="BM81" s="156"/>
+      <c r="BN81" s="157"/>
       <c r="BR81" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E400004 = 辞書ファイルが存在しません。ファイル名：%%(file)s</v>
@@ -23256,12 +23305,12 @@
       <c r="BH82" s="34"/>
       <c r="BI82" s="34"/>
       <c r="BJ82" s="35"/>
-      <c r="BK82" s="152" t="s">
+      <c r="BK82" s="155" t="s">
         <v>404</v>
       </c>
-      <c r="BL82" s="153"/>
-      <c r="BM82" s="153"/>
-      <c r="BN82" s="154"/>
+      <c r="BL82" s="156"/>
+      <c r="BM82" s="156"/>
+      <c r="BN82" s="157"/>
       <c r="BR82" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E500001 = データ品質調査_対象項目リストが存在しません。</v>
@@ -23338,12 +23387,12 @@
       <c r="BH83" s="34"/>
       <c r="BI83" s="34"/>
       <c r="BJ83" s="35"/>
-      <c r="BK83" s="152" t="s">
+      <c r="BK83" s="155" t="s">
         <v>408</v>
       </c>
-      <c r="BL83" s="153"/>
-      <c r="BM83" s="153"/>
-      <c r="BN83" s="154"/>
+      <c r="BL83" s="156"/>
+      <c r="BM83" s="156"/>
+      <c r="BN83" s="157"/>
       <c r="BR83" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E500002 = データ品質調査_対象項目が取得できませんでした。2</v>
@@ -23420,12 +23469,12 @@
       <c r="BH84" s="34"/>
       <c r="BI84" s="34"/>
       <c r="BJ84" s="35"/>
-      <c r="BK84" s="152" t="s">
+      <c r="BK84" s="155" t="s">
         <v>412</v>
       </c>
-      <c r="BL84" s="153"/>
-      <c r="BM84" s="153"/>
-      <c r="BN84" s="154"/>
+      <c r="BL84" s="156"/>
+      <c r="BM84" s="156"/>
+      <c r="BN84" s="157"/>
       <c r="BR84" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E500003 = データ品質調査ジョブの引数の実行タイプが不正です。実行タイプ:%%(value)s</v>
@@ -23502,12 +23551,12 @@
       <c r="BH85" s="34"/>
       <c r="BI85" s="34"/>
       <c r="BJ85" s="35"/>
-      <c r="BK85" s="152" t="s">
+      <c r="BK85" s="155" t="s">
         <v>416</v>
       </c>
-      <c r="BL85" s="153"/>
-      <c r="BM85" s="153"/>
-      <c r="BN85" s="154"/>
+      <c r="BL85" s="156"/>
+      <c r="BM85" s="156"/>
+      <c r="BN85" s="157"/>
       <c r="BR85" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E500004 = データ品質調査_施設IDマッピングファイルが取得できませんでした。</v>
@@ -23520,23 +23569,23 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="35"/>
-      <c r="F86" s="163" t="s">
+      <c r="F86" s="152" t="s">
         <v>448</v>
       </c>
-      <c r="G86" s="164"/>
-      <c r="H86" s="164"/>
-      <c r="I86" s="164"/>
-      <c r="J86" s="164"/>
-      <c r="K86" s="164"/>
-      <c r="L86" s="164"/>
-      <c r="M86" s="164"/>
-      <c r="N86" s="164"/>
-      <c r="O86" s="164"/>
-      <c r="P86" s="164"/>
-      <c r="Q86" s="164"/>
-      <c r="R86" s="164"/>
-      <c r="S86" s="164"/>
-      <c r="T86" s="165"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
+      <c r="I86" s="153"/>
+      <c r="J86" s="153"/>
+      <c r="K86" s="153"/>
+      <c r="L86" s="153"/>
+      <c r="M86" s="153"/>
+      <c r="N86" s="153"/>
+      <c r="O86" s="153"/>
+      <c r="P86" s="153"/>
+      <c r="Q86" s="153"/>
+      <c r="R86" s="153"/>
+      <c r="S86" s="153"/>
+      <c r="T86" s="154"/>
       <c r="U86" s="24" t="s">
         <v>449</v>
       </c>
@@ -23584,12 +23633,12 @@
       <c r="BH86" s="34"/>
       <c r="BI86" s="34"/>
       <c r="BJ86" s="35"/>
-      <c r="BK86" s="152" t="s">
+      <c r="BK86" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="BL86" s="153"/>
-      <c r="BM86" s="153"/>
-      <c r="BN86" s="154"/>
+      <c r="BL86" s="156"/>
+      <c r="BM86" s="156"/>
+      <c r="BN86" s="157"/>
       <c r="BR86" s="25" t="str">
         <f t="shared" si="57"/>
         <v>E500005 = MML項目欠損等チェック_設定ファイル内の必須シートが存在しません。シート名：%%(value)s</v>
@@ -23602,23 +23651,23 @@
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="35"/>
-      <c r="F87" s="163" t="s">
+      <c r="F87" s="152" t="s">
         <v>481</v>
       </c>
-      <c r="G87" s="164"/>
-      <c r="H87" s="164"/>
-      <c r="I87" s="164"/>
-      <c r="J87" s="164"/>
-      <c r="K87" s="164"/>
-      <c r="L87" s="164"/>
-      <c r="M87" s="164"/>
-      <c r="N87" s="164"/>
-      <c r="O87" s="164"/>
-      <c r="P87" s="164"/>
-      <c r="Q87" s="164"/>
-      <c r="R87" s="164"/>
-      <c r="S87" s="164"/>
-      <c r="T87" s="165"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153"/>
+      <c r="O87" s="153"/>
+      <c r="P87" s="153"/>
+      <c r="Q87" s="153"/>
+      <c r="R87" s="153"/>
+      <c r="S87" s="153"/>
+      <c r="T87" s="154"/>
       <c r="U87" s="24" t="s">
         <v>451</v>
       </c>
@@ -23666,12 +23715,12 @@
       <c r="BH87" s="34"/>
       <c r="BI87" s="34"/>
       <c r="BJ87" s="35"/>
-      <c r="BK87" s="152" t="s">
+      <c r="BK87" s="155" t="s">
         <v>452</v>
       </c>
-      <c r="BL87" s="153"/>
-      <c r="BM87" s="153"/>
-      <c r="BN87" s="154"/>
+      <c r="BL87" s="156"/>
+      <c r="BM87" s="156"/>
+      <c r="BN87" s="157"/>
       <c r="BR87" s="25" t="str">
         <f t="shared" ref="BR87:BR89" si="59">B87&amp;" = "&amp;U87</f>
         <v>E500006 = MML項目欠損等チェック_設定ファイル内の必須シートが存在しません。詳細はログファイルを参照してください。</v>
@@ -23684,23 +23733,23 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
-      <c r="F88" s="163" t="s">
+      <c r="F88" s="152" t="s">
         <v>453</v>
       </c>
-      <c r="G88" s="164"/>
-      <c r="H88" s="164"/>
-      <c r="I88" s="164"/>
-      <c r="J88" s="164"/>
-      <c r="K88" s="164"/>
-      <c r="L88" s="164"/>
-      <c r="M88" s="164"/>
-      <c r="N88" s="164"/>
-      <c r="O88" s="164"/>
-      <c r="P88" s="164"/>
-      <c r="Q88" s="164"/>
-      <c r="R88" s="164"/>
-      <c r="S88" s="164"/>
-      <c r="T88" s="165"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="153"/>
+      <c r="J88" s="153"/>
+      <c r="K88" s="153"/>
+      <c r="L88" s="153"/>
+      <c r="M88" s="153"/>
+      <c r="N88" s="153"/>
+      <c r="O88" s="153"/>
+      <c r="P88" s="153"/>
+      <c r="Q88" s="153"/>
+      <c r="R88" s="153"/>
+      <c r="S88" s="153"/>
+      <c r="T88" s="154"/>
       <c r="U88" s="24" t="s">
         <v>454</v>
       </c>
@@ -23748,12 +23797,12 @@
       <c r="BH88" s="34"/>
       <c r="BI88" s="34"/>
       <c r="BJ88" s="35"/>
-      <c r="BK88" s="152" t="s">
+      <c r="BK88" s="155" t="s">
         <v>482</v>
       </c>
-      <c r="BL88" s="153"/>
-      <c r="BM88" s="153"/>
-      <c r="BN88" s="154"/>
+      <c r="BL88" s="156"/>
+      <c r="BM88" s="156"/>
+      <c r="BN88" s="157"/>
       <c r="BR88" s="25" t="str">
         <f t="shared" si="59"/>
         <v>E500007 = MML項目欠損等チェック_設定ファイル内のシートのヘッダー設定が不正です。シート名：%%(sheet)s　ヘッダー名：%%(header)s　</v>
@@ -23766,23 +23815,23 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="35"/>
-      <c r="F89" s="163" t="s">
+      <c r="F89" s="152" t="s">
         <v>455</v>
       </c>
-      <c r="G89" s="164"/>
-      <c r="H89" s="164"/>
-      <c r="I89" s="164"/>
-      <c r="J89" s="164"/>
-      <c r="K89" s="164"/>
-      <c r="L89" s="164"/>
-      <c r="M89" s="164"/>
-      <c r="N89" s="164"/>
-      <c r="O89" s="164"/>
-      <c r="P89" s="164"/>
-      <c r="Q89" s="164"/>
-      <c r="R89" s="164"/>
-      <c r="S89" s="164"/>
-      <c r="T89" s="165"/>
+      <c r="G89" s="153"/>
+      <c r="H89" s="153"/>
+      <c r="I89" s="153"/>
+      <c r="J89" s="153"/>
+      <c r="K89" s="153"/>
+      <c r="L89" s="153"/>
+      <c r="M89" s="153"/>
+      <c r="N89" s="153"/>
+      <c r="O89" s="153"/>
+      <c r="P89" s="153"/>
+      <c r="Q89" s="153"/>
+      <c r="R89" s="153"/>
+      <c r="S89" s="153"/>
+      <c r="T89" s="154"/>
       <c r="U89" s="24" t="s">
         <v>456</v>
       </c>
@@ -23830,12 +23879,12 @@
       <c r="BH89" s="34"/>
       <c r="BI89" s="34"/>
       <c r="BJ89" s="35"/>
-      <c r="BK89" s="152" t="s">
+      <c r="BK89" s="155" t="s">
         <v>483</v>
       </c>
-      <c r="BL89" s="153"/>
-      <c r="BM89" s="153"/>
-      <c r="BN89" s="154"/>
+      <c r="BL89" s="156"/>
+      <c r="BM89" s="156"/>
+      <c r="BN89" s="157"/>
       <c r="BR89" s="25" t="str">
         <f t="shared" si="59"/>
         <v>E500008 = MML項目欠損等チェック_設定ファイル内のシートのヘッダー設定が不正です。詳細はログファイルを参照してください。</v>
@@ -23848,23 +23897,23 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="35"/>
-      <c r="F90" s="163" t="s">
+      <c r="F90" s="152" t="s">
         <v>457</v>
       </c>
-      <c r="G90" s="164"/>
-      <c r="H90" s="164"/>
-      <c r="I90" s="164"/>
-      <c r="J90" s="164"/>
-      <c r="K90" s="164"/>
-      <c r="L90" s="164"/>
-      <c r="M90" s="164"/>
-      <c r="N90" s="164"/>
-      <c r="O90" s="164"/>
-      <c r="P90" s="164"/>
-      <c r="Q90" s="164"/>
-      <c r="R90" s="164"/>
-      <c r="S90" s="164"/>
-      <c r="T90" s="165"/>
+      <c r="G90" s="153"/>
+      <c r="H90" s="153"/>
+      <c r="I90" s="153"/>
+      <c r="J90" s="153"/>
+      <c r="K90" s="153"/>
+      <c r="L90" s="153"/>
+      <c r="M90" s="153"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="153"/>
+      <c r="P90" s="153"/>
+      <c r="Q90" s="153"/>
+      <c r="R90" s="153"/>
+      <c r="S90" s="153"/>
+      <c r="T90" s="154"/>
       <c r="U90" s="24" t="s">
         <v>458</v>
       </c>
@@ -23912,12 +23961,12 @@
       <c r="BH90" s="34"/>
       <c r="BI90" s="34"/>
       <c r="BJ90" s="35"/>
-      <c r="BK90" s="152" t="s">
+      <c r="BK90" s="155" t="s">
         <v>459</v>
       </c>
-      <c r="BL90" s="153"/>
-      <c r="BM90" s="153"/>
-      <c r="BN90" s="154"/>
+      <c r="BL90" s="156"/>
+      <c r="BM90" s="156"/>
+      <c r="BN90" s="157"/>
       <c r="BR90" s="25" t="str">
         <f t="shared" ref="BR90:BR91" si="61">B90&amp;" = "&amp;U90</f>
         <v>E500009 = MML項目欠損等チェック_デフォルト設定シートの設定値が不正です。ヘッダー名：%%(value)s　</v>
@@ -23930,23 +23979,23 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="35"/>
-      <c r="F91" s="163" t="s">
+      <c r="F91" s="152" t="s">
         <v>460</v>
       </c>
-      <c r="G91" s="164"/>
-      <c r="H91" s="164"/>
-      <c r="I91" s="164"/>
-      <c r="J91" s="164"/>
-      <c r="K91" s="164"/>
-      <c r="L91" s="164"/>
-      <c r="M91" s="164"/>
-      <c r="N91" s="164"/>
-      <c r="O91" s="164"/>
-      <c r="P91" s="164"/>
-      <c r="Q91" s="164"/>
-      <c r="R91" s="164"/>
-      <c r="S91" s="164"/>
-      <c r="T91" s="165"/>
+      <c r="G91" s="153"/>
+      <c r="H91" s="153"/>
+      <c r="I91" s="153"/>
+      <c r="J91" s="153"/>
+      <c r="K91" s="153"/>
+      <c r="L91" s="153"/>
+      <c r="M91" s="153"/>
+      <c r="N91" s="153"/>
+      <c r="O91" s="153"/>
+      <c r="P91" s="153"/>
+      <c r="Q91" s="153"/>
+      <c r="R91" s="153"/>
+      <c r="S91" s="153"/>
+      <c r="T91" s="154"/>
       <c r="U91" s="24" t="s">
         <v>461</v>
       </c>
@@ -23994,12 +24043,12 @@
       <c r="BH91" s="34"/>
       <c r="BI91" s="34"/>
       <c r="BJ91" s="35"/>
-      <c r="BK91" s="152" t="s">
+      <c r="BK91" s="155" t="s">
         <v>462</v>
       </c>
-      <c r="BL91" s="153"/>
-      <c r="BM91" s="153"/>
-      <c r="BN91" s="154"/>
+      <c r="BL91" s="156"/>
+      <c r="BM91" s="156"/>
+      <c r="BN91" s="157"/>
       <c r="BR91" s="25" t="str">
         <f t="shared" si="61"/>
         <v>E500010 = MML項目欠損等チェック_デフォルト設定シートの設定値が不正です。詳細はログファイルを参照してください。</v>
@@ -24012,23 +24061,23 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="35"/>
-      <c r="F92" s="163" t="s">
+      <c r="F92" s="152" t="s">
         <v>463</v>
       </c>
-      <c r="G92" s="164"/>
-      <c r="H92" s="164"/>
-      <c r="I92" s="164"/>
-      <c r="J92" s="164"/>
-      <c r="K92" s="164"/>
-      <c r="L92" s="164"/>
-      <c r="M92" s="164"/>
-      <c r="N92" s="164"/>
-      <c r="O92" s="164"/>
-      <c r="P92" s="164"/>
-      <c r="Q92" s="164"/>
-      <c r="R92" s="164"/>
-      <c r="S92" s="164"/>
-      <c r="T92" s="165"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="153"/>
+      <c r="I92" s="153"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="153"/>
+      <c r="L92" s="153"/>
+      <c r="M92" s="153"/>
+      <c r="N92" s="153"/>
+      <c r="O92" s="153"/>
+      <c r="P92" s="153"/>
+      <c r="Q92" s="153"/>
+      <c r="R92" s="153"/>
+      <c r="S92" s="153"/>
+      <c r="T92" s="154"/>
       <c r="U92" s="24" t="s">
         <v>464</v>
       </c>
@@ -24076,12 +24125,12 @@
       <c r="BH92" s="34"/>
       <c r="BI92" s="34"/>
       <c r="BJ92" s="35"/>
-      <c r="BK92" s="152" t="s">
+      <c r="BK92" s="155" t="s">
         <v>465</v>
       </c>
-      <c r="BL92" s="153"/>
-      <c r="BM92" s="153"/>
-      <c r="BN92" s="154"/>
+      <c r="BL92" s="156"/>
+      <c r="BM92" s="156"/>
+      <c r="BN92" s="157"/>
       <c r="BR92" s="25" t="str">
         <f t="shared" ref="BR92:BR98" si="63">B92&amp;" = "&amp;U92</f>
         <v>E500011 = MML項目欠損等チェック_施設別実行対象設定兼結果サマリシートの設定値が不正です。ヘッダー名：%%(value)s　</v>
@@ -24094,23 +24143,23 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="35"/>
-      <c r="F93" s="163" t="s">
+      <c r="F93" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="G93" s="164"/>
-      <c r="H93" s="164"/>
-      <c r="I93" s="164"/>
-      <c r="J93" s="164"/>
-      <c r="K93" s="164"/>
-      <c r="L93" s="164"/>
-      <c r="M93" s="164"/>
-      <c r="N93" s="164"/>
-      <c r="O93" s="164"/>
-      <c r="P93" s="164"/>
-      <c r="Q93" s="164"/>
-      <c r="R93" s="164"/>
-      <c r="S93" s="164"/>
-      <c r="T93" s="165"/>
+      <c r="G93" s="153"/>
+      <c r="H93" s="153"/>
+      <c r="I93" s="153"/>
+      <c r="J93" s="153"/>
+      <c r="K93" s="153"/>
+      <c r="L93" s="153"/>
+      <c r="M93" s="153"/>
+      <c r="N93" s="153"/>
+      <c r="O93" s="153"/>
+      <c r="P93" s="153"/>
+      <c r="Q93" s="153"/>
+      <c r="R93" s="153"/>
+      <c r="S93" s="153"/>
+      <c r="T93" s="154"/>
       <c r="U93" s="24" t="s">
         <v>467</v>
       </c>
@@ -24158,12 +24207,12 @@
       <c r="BH93" s="34"/>
       <c r="BI93" s="34"/>
       <c r="BJ93" s="35"/>
-      <c r="BK93" s="152" t="s">
+      <c r="BK93" s="155" t="s">
         <v>468</v>
       </c>
-      <c r="BL93" s="153"/>
-      <c r="BM93" s="153"/>
-      <c r="BN93" s="154"/>
+      <c r="BL93" s="156"/>
+      <c r="BM93" s="156"/>
+      <c r="BN93" s="157"/>
       <c r="BR93" s="25" t="str">
         <f t="shared" si="63"/>
         <v>E500012 = MML項目欠損等チェック_施設別実行対象設定兼結果サマリシートの設定値が不正です。詳細はログファイルを参照してください。</v>
@@ -24176,23 +24225,23 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="35"/>
-      <c r="F94" s="163" t="s">
+      <c r="F94" s="152" t="s">
         <v>469</v>
       </c>
-      <c r="G94" s="164"/>
-      <c r="H94" s="164"/>
-      <c r="I94" s="164"/>
-      <c r="J94" s="164"/>
-      <c r="K94" s="164"/>
-      <c r="L94" s="164"/>
-      <c r="M94" s="164"/>
-      <c r="N94" s="164"/>
-      <c r="O94" s="164"/>
-      <c r="P94" s="164"/>
-      <c r="Q94" s="164"/>
-      <c r="R94" s="164"/>
-      <c r="S94" s="164"/>
-      <c r="T94" s="165"/>
+      <c r="G94" s="153"/>
+      <c r="H94" s="153"/>
+      <c r="I94" s="153"/>
+      <c r="J94" s="153"/>
+      <c r="K94" s="153"/>
+      <c r="L94" s="153"/>
+      <c r="M94" s="153"/>
+      <c r="N94" s="153"/>
+      <c r="O94" s="153"/>
+      <c r="P94" s="153"/>
+      <c r="Q94" s="153"/>
+      <c r="R94" s="153"/>
+      <c r="S94" s="153"/>
+      <c r="T94" s="154"/>
       <c r="U94" s="24" t="s">
         <v>470</v>
       </c>
@@ -24240,12 +24289,12 @@
       <c r="BH94" s="34"/>
       <c r="BI94" s="34"/>
       <c r="BJ94" s="35"/>
-      <c r="BK94" s="152" t="s">
+      <c r="BK94" s="155" t="s">
         <v>471</v>
       </c>
-      <c r="BL94" s="153"/>
-      <c r="BM94" s="153"/>
-      <c r="BN94" s="154"/>
+      <c r="BL94" s="156"/>
+      <c r="BM94" s="156"/>
+      <c r="BN94" s="157"/>
       <c r="BR94" s="25" t="str">
         <f t="shared" si="63"/>
         <v>E500013 = MML項目欠損等チェック_実行結果シートのヘッダー設定が不正です。シート名：%%(sheet)s　ヘッダー名：%%(header)s　</v>
@@ -24258,23 +24307,23 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="35"/>
-      <c r="F95" s="163" t="s">
+      <c r="F95" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="G95" s="164"/>
-      <c r="H95" s="164"/>
-      <c r="I95" s="164"/>
-      <c r="J95" s="164"/>
-      <c r="K95" s="164"/>
-      <c r="L95" s="164"/>
-      <c r="M95" s="164"/>
-      <c r="N95" s="164"/>
-      <c r="O95" s="164"/>
-      <c r="P95" s="164"/>
-      <c r="Q95" s="164"/>
-      <c r="R95" s="164"/>
-      <c r="S95" s="164"/>
-      <c r="T95" s="165"/>
+      <c r="G95" s="153"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="153"/>
+      <c r="J95" s="153"/>
+      <c r="K95" s="153"/>
+      <c r="L95" s="153"/>
+      <c r="M95" s="153"/>
+      <c r="N95" s="153"/>
+      <c r="O95" s="153"/>
+      <c r="P95" s="153"/>
+      <c r="Q95" s="153"/>
+      <c r="R95" s="153"/>
+      <c r="S95" s="153"/>
+      <c r="T95" s="154"/>
       <c r="U95" s="24" t="s">
         <v>473</v>
       </c>
@@ -24322,12 +24371,12 @@
       <c r="BH95" s="34"/>
       <c r="BI95" s="34"/>
       <c r="BJ95" s="35"/>
-      <c r="BK95" s="152" t="s">
+      <c r="BK95" s="155" t="s">
         <v>474</v>
       </c>
-      <c r="BL95" s="153"/>
-      <c r="BM95" s="153"/>
-      <c r="BN95" s="154"/>
+      <c r="BL95" s="156"/>
+      <c r="BM95" s="156"/>
+      <c r="BN95" s="157"/>
       <c r="BR95" s="25" t="str">
         <f t="shared" si="63"/>
         <v>E500014 = MML項目欠損等チェック_実行結果シートのヘッダー設定が不正です。詳細はログファイルを参照してください。</v>
@@ -24340,23 +24389,23 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="35"/>
-      <c r="F96" s="163" t="s">
+      <c r="F96" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="G96" s="164"/>
-      <c r="H96" s="164"/>
-      <c r="I96" s="164"/>
-      <c r="J96" s="164"/>
-      <c r="K96" s="164"/>
-      <c r="L96" s="164"/>
-      <c r="M96" s="164"/>
-      <c r="N96" s="164"/>
-      <c r="O96" s="164"/>
-      <c r="P96" s="164"/>
-      <c r="Q96" s="164"/>
-      <c r="R96" s="164"/>
-      <c r="S96" s="164"/>
-      <c r="T96" s="165"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="153"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="153"/>
+      <c r="P96" s="153"/>
+      <c r="Q96" s="153"/>
+      <c r="R96" s="153"/>
+      <c r="S96" s="153"/>
+      <c r="T96" s="154"/>
       <c r="U96" s="24" t="s">
         <v>476</v>
       </c>
@@ -24404,12 +24453,12 @@
       <c r="BH96" s="34"/>
       <c r="BI96" s="34"/>
       <c r="BJ96" s="35"/>
-      <c r="BK96" s="152" t="s">
+      <c r="BK96" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="BL96" s="153"/>
-      <c r="BM96" s="153"/>
-      <c r="BN96" s="154"/>
+      <c r="BL96" s="156"/>
+      <c r="BM96" s="156"/>
+      <c r="BN96" s="157"/>
       <c r="BR96" s="25" t="str">
         <f t="shared" si="63"/>
         <v>E500015 = MML項目欠損等チェック_実行結果シートの設定値が不正です。シート名：%%(sheet)s　ヘッダー名：%%(header)s　</v>
@@ -24422,23 +24471,23 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="35"/>
-      <c r="F97" s="163" t="s">
+      <c r="F97" s="152" t="s">
         <v>478</v>
       </c>
-      <c r="G97" s="164"/>
-      <c r="H97" s="164"/>
-      <c r="I97" s="164"/>
-      <c r="J97" s="164"/>
-      <c r="K97" s="164"/>
-      <c r="L97" s="164"/>
-      <c r="M97" s="164"/>
-      <c r="N97" s="164"/>
-      <c r="O97" s="164"/>
-      <c r="P97" s="164"/>
-      <c r="Q97" s="164"/>
-      <c r="R97" s="164"/>
-      <c r="S97" s="164"/>
-      <c r="T97" s="165"/>
+      <c r="G97" s="153"/>
+      <c r="H97" s="153"/>
+      <c r="I97" s="153"/>
+      <c r="J97" s="153"/>
+      <c r="K97" s="153"/>
+      <c r="L97" s="153"/>
+      <c r="M97" s="153"/>
+      <c r="N97" s="153"/>
+      <c r="O97" s="153"/>
+      <c r="P97" s="153"/>
+      <c r="Q97" s="153"/>
+      <c r="R97" s="153"/>
+      <c r="S97" s="153"/>
+      <c r="T97" s="154"/>
       <c r="U97" s="24" t="s">
         <v>479</v>
       </c>
@@ -24486,12 +24535,12 @@
       <c r="BH97" s="34"/>
       <c r="BI97" s="34"/>
       <c r="BJ97" s="35"/>
-      <c r="BK97" s="152" t="s">
+      <c r="BK97" s="155" t="s">
         <v>480</v>
       </c>
-      <c r="BL97" s="153"/>
-      <c r="BM97" s="153"/>
-      <c r="BN97" s="154"/>
+      <c r="BL97" s="156"/>
+      <c r="BM97" s="156"/>
+      <c r="BN97" s="157"/>
       <c r="BR97" s="25" t="str">
         <f t="shared" ref="BR97" si="65">B97&amp;" = "&amp;U97</f>
         <v>E500016 = MML項目欠損等チェック_実行結果シートの設定値が不正です。詳細はログファイルを参照してください。</v>
@@ -24504,23 +24553,23 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="35"/>
-      <c r="F98" s="163" t="s">
+      <c r="F98" s="152" t="s">
         <v>485</v>
       </c>
-      <c r="G98" s="164"/>
-      <c r="H98" s="164"/>
-      <c r="I98" s="164"/>
-      <c r="J98" s="164"/>
-      <c r="K98" s="164"/>
-      <c r="L98" s="164"/>
-      <c r="M98" s="164"/>
-      <c r="N98" s="164"/>
-      <c r="O98" s="164"/>
-      <c r="P98" s="164"/>
-      <c r="Q98" s="164"/>
-      <c r="R98" s="164"/>
-      <c r="S98" s="164"/>
-      <c r="T98" s="165"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="153"/>
+      <c r="J98" s="153"/>
+      <c r="K98" s="153"/>
+      <c r="L98" s="153"/>
+      <c r="M98" s="153"/>
+      <c r="N98" s="153"/>
+      <c r="O98" s="153"/>
+      <c r="P98" s="153"/>
+      <c r="Q98" s="153"/>
+      <c r="R98" s="153"/>
+      <c r="S98" s="153"/>
+      <c r="T98" s="154"/>
       <c r="U98" s="24" t="s">
         <v>486</v>
       </c>
@@ -24568,12 +24617,12 @@
       <c r="BH98" s="34"/>
       <c r="BI98" s="34"/>
       <c r="BJ98" s="35"/>
-      <c r="BK98" s="152" t="s">
+      <c r="BK98" s="155" t="s">
         <v>484</v>
       </c>
-      <c r="BL98" s="153"/>
-      <c r="BM98" s="153"/>
-      <c r="BN98" s="154"/>
+      <c r="BL98" s="156"/>
+      <c r="BM98" s="156"/>
+      <c r="BN98" s="157"/>
       <c r="BR98" s="25" t="str">
         <f t="shared" si="63"/>
         <v>E500017 = MML項目欠損等チェックの設定ファイルが存在しません。</v>
@@ -24650,12 +24699,12 @@
       <c r="BH99" s="34"/>
       <c r="BI99" s="34"/>
       <c r="BJ99" s="35"/>
-      <c r="BK99" s="152" t="s">
+      <c r="BK99" s="155" t="s">
         <v>424</v>
       </c>
-      <c r="BL99" s="153"/>
-      <c r="BM99" s="153"/>
-      <c r="BN99" s="154"/>
+      <c r="BL99" s="156"/>
+      <c r="BM99" s="156"/>
+      <c r="BN99" s="157"/>
       <c r="BR99" s="25" t="str">
         <f t="shared" ref="BR99:BR100" si="67">B99&amp;" = "&amp;U99</f>
         <v>E600001 = マスタ取込対象フォルダが存在しません。</v>
@@ -24732,12 +24781,12 @@
       <c r="BH100" s="34"/>
       <c r="BI100" s="34"/>
       <c r="BJ100" s="35"/>
-      <c r="BK100" s="152" t="s">
+      <c r="BK100" s="155" t="s">
         <v>426</v>
       </c>
-      <c r="BL100" s="153"/>
-      <c r="BM100" s="153"/>
-      <c r="BN100" s="154"/>
+      <c r="BL100" s="156"/>
+      <c r="BM100" s="156"/>
+      <c r="BN100" s="157"/>
       <c r="BR100" s="25" t="str">
         <f t="shared" si="67"/>
         <v>E600002 = マスタ取込対象フォルダ名がYYYYMMDD形式ではありません。フォルダ名:%%(name)s</v>
@@ -24814,12 +24863,12 @@
       <c r="BH101" s="34"/>
       <c r="BI101" s="34"/>
       <c r="BJ101" s="35"/>
-      <c r="BK101" s="152" t="s">
+      <c r="BK101" s="155" t="s">
         <v>431</v>
       </c>
-      <c r="BL101" s="153"/>
-      <c r="BM101" s="153"/>
-      <c r="BN101" s="154"/>
+      <c r="BL101" s="156"/>
+      <c r="BM101" s="156"/>
+      <c r="BN101" s="157"/>
       <c r="BR101" s="25" t="str">
         <f t="shared" ref="BR101" si="69">B101&amp;" = "&amp;U101</f>
         <v>E600003 = マスタ取込対象フォルダ内にファイルが存在しません。フォルダ名:%%(name)s</v>
@@ -24827,61 +24876,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F98:T98"/>
-    <mergeCell ref="BK98:BN98"/>
-    <mergeCell ref="F94:T94"/>
-    <mergeCell ref="BK94:BN94"/>
-    <mergeCell ref="F95:T95"/>
-    <mergeCell ref="BK95:BN95"/>
-    <mergeCell ref="F96:T96"/>
-    <mergeCell ref="BK96:BN96"/>
-    <mergeCell ref="F97:T97"/>
-    <mergeCell ref="BK97:BN97"/>
-    <mergeCell ref="F91:T91"/>
-    <mergeCell ref="BK91:BN91"/>
-    <mergeCell ref="F92:T92"/>
-    <mergeCell ref="BK92:BN92"/>
-    <mergeCell ref="F93:T93"/>
-    <mergeCell ref="BK93:BN93"/>
-    <mergeCell ref="F89:T89"/>
-    <mergeCell ref="BK89:BN89"/>
-    <mergeCell ref="F90:T90"/>
-    <mergeCell ref="BK90:BN90"/>
-    <mergeCell ref="BK82:BN82"/>
-    <mergeCell ref="BK83:BN83"/>
-    <mergeCell ref="BK84:BN84"/>
-    <mergeCell ref="BK85:BN85"/>
-    <mergeCell ref="BK87:BN87"/>
-    <mergeCell ref="BK86:BN86"/>
-    <mergeCell ref="F87:T87"/>
-    <mergeCell ref="F86:T86"/>
-    <mergeCell ref="F88:T88"/>
-    <mergeCell ref="BK88:BN88"/>
-    <mergeCell ref="BK78:BN78"/>
-    <mergeCell ref="BK79:BN79"/>
-    <mergeCell ref="BK80:BN80"/>
-    <mergeCell ref="BK81:BN81"/>
-    <mergeCell ref="BK76:BN76"/>
-    <mergeCell ref="BK67:BN67"/>
-    <mergeCell ref="BK68:BN68"/>
-    <mergeCell ref="BK74:BN74"/>
-    <mergeCell ref="BK75:BN75"/>
-    <mergeCell ref="BK73:BN73"/>
-    <mergeCell ref="BK72:BN72"/>
-    <mergeCell ref="BK21:BN21"/>
-    <mergeCell ref="BK22:BN22"/>
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AI1"/>
-    <mergeCell ref="U24:BE24"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="J2:O3"/>
-    <mergeCell ref="P2:V3"/>
-    <mergeCell ref="W2:AB3"/>
-    <mergeCell ref="AC2:AI3"/>
-    <mergeCell ref="AJ2:AO3"/>
     <mergeCell ref="BK99:BN99"/>
     <mergeCell ref="BK101:BN101"/>
     <mergeCell ref="BK100:BN100"/>
@@ -24898,11 +24892,66 @@
     <mergeCell ref="BK69:BN69"/>
     <mergeCell ref="BK65:BN65"/>
     <mergeCell ref="BK77:BN77"/>
+    <mergeCell ref="U24:BE24"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="J2:O3"/>
+    <mergeCell ref="P2:V3"/>
+    <mergeCell ref="W2:AB3"/>
+    <mergeCell ref="AC2:AI3"/>
+    <mergeCell ref="AJ2:AO3"/>
+    <mergeCell ref="BK21:BN21"/>
+    <mergeCell ref="BK22:BN22"/>
+    <mergeCell ref="B1:I3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="BK67:BN67"/>
+    <mergeCell ref="BK68:BN68"/>
+    <mergeCell ref="BK74:BN74"/>
+    <mergeCell ref="BK75:BN75"/>
+    <mergeCell ref="BK73:BN73"/>
+    <mergeCell ref="BK72:BN72"/>
+    <mergeCell ref="BK78:BN78"/>
+    <mergeCell ref="BK79:BN79"/>
+    <mergeCell ref="BK80:BN80"/>
+    <mergeCell ref="BK81:BN81"/>
+    <mergeCell ref="BK76:BN76"/>
+    <mergeCell ref="F89:T89"/>
+    <mergeCell ref="BK89:BN89"/>
+    <mergeCell ref="F90:T90"/>
+    <mergeCell ref="BK90:BN90"/>
+    <mergeCell ref="BK82:BN82"/>
+    <mergeCell ref="BK83:BN83"/>
+    <mergeCell ref="BK84:BN84"/>
+    <mergeCell ref="BK85:BN85"/>
+    <mergeCell ref="BK87:BN87"/>
+    <mergeCell ref="BK86:BN86"/>
+    <mergeCell ref="F87:T87"/>
+    <mergeCell ref="F86:T86"/>
+    <mergeCell ref="F88:T88"/>
+    <mergeCell ref="BK88:BN88"/>
+    <mergeCell ref="F91:T91"/>
+    <mergeCell ref="BK91:BN91"/>
+    <mergeCell ref="F92:T92"/>
+    <mergeCell ref="BK92:BN92"/>
+    <mergeCell ref="F93:T93"/>
+    <mergeCell ref="BK93:BN93"/>
+    <mergeCell ref="F98:T98"/>
+    <mergeCell ref="BK98:BN98"/>
+    <mergeCell ref="F94:T94"/>
+    <mergeCell ref="BK94:BN94"/>
+    <mergeCell ref="F95:T95"/>
+    <mergeCell ref="BK95:BN95"/>
+    <mergeCell ref="F96:T96"/>
+    <mergeCell ref="BK96:BN96"/>
+    <mergeCell ref="F97:T97"/>
+    <mergeCell ref="BK97:BN97"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
